--- a/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>ABEV</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3520400</v>
+        <v>3851700</v>
       </c>
       <c r="E8" s="3">
-        <v>3608600</v>
+        <v>3365600</v>
       </c>
       <c r="F8" s="3">
-        <v>4307500</v>
+        <v>3449800</v>
       </c>
       <c r="G8" s="3">
-        <v>3619000</v>
+        <v>4118000</v>
       </c>
       <c r="H8" s="3">
-        <v>3074700</v>
+        <v>3459800</v>
       </c>
       <c r="I8" s="3">
-        <v>3256400</v>
+        <v>2939400</v>
       </c>
       <c r="J8" s="3">
+        <v>3113100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3631500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3053800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1834500</v>
+        <v>1992100</v>
       </c>
       <c r="E9" s="3">
-        <v>1842400</v>
+        <v>1753800</v>
       </c>
       <c r="F9" s="3">
-        <v>2054100</v>
+        <v>1761400</v>
       </c>
       <c r="G9" s="3">
-        <v>1810800</v>
+        <v>1963700</v>
       </c>
       <c r="H9" s="3">
-        <v>1558800</v>
+        <v>1731200</v>
       </c>
       <c r="I9" s="3">
-        <v>1554900</v>
+        <v>1490200</v>
       </c>
       <c r="J9" s="3">
+        <v>1486500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1604300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1452700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1685900</v>
+        <v>1859600</v>
       </c>
       <c r="E10" s="3">
-        <v>1766100</v>
+        <v>1611700</v>
       </c>
       <c r="F10" s="3">
-        <v>2253400</v>
+        <v>1688400</v>
       </c>
       <c r="G10" s="3">
-        <v>1808200</v>
+        <v>2154300</v>
       </c>
       <c r="H10" s="3">
-        <v>1515900</v>
+        <v>1728600</v>
       </c>
       <c r="I10" s="3">
-        <v>1701500</v>
+        <v>1449200</v>
       </c>
       <c r="J10" s="3">
+        <v>1626600</v>
+      </c>
+      <c r="K10" s="3">
         <v>2027200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1601100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,37 +887,43 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-82200</v>
+        <v>-100800</v>
       </c>
       <c r="E14" s="3">
-        <v>-59500</v>
+        <v>-78600</v>
       </c>
       <c r="F14" s="3">
-        <v>-20300</v>
+        <v>-56900</v>
       </c>
       <c r="G14" s="3">
-        <v>-33300</v>
+        <v>-19400</v>
       </c>
       <c r="H14" s="3">
-        <v>-13000</v>
+        <v>-31800</v>
       </c>
       <c r="I14" s="3">
-        <v>-35300</v>
+        <v>-12400</v>
       </c>
       <c r="J14" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-9500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2642700</v>
+        <v>2988500</v>
       </c>
       <c r="E17" s="3">
-        <v>2729200</v>
+        <v>2526400</v>
       </c>
       <c r="F17" s="3">
-        <v>3260300</v>
+        <v>2609100</v>
       </c>
       <c r="G17" s="3">
-        <v>2787400</v>
+        <v>3116900</v>
       </c>
       <c r="H17" s="3">
-        <v>2282800</v>
+        <v>2664800</v>
       </c>
       <c r="I17" s="3">
-        <v>2428300</v>
+        <v>2182400</v>
       </c>
       <c r="J17" s="3">
+        <v>2321500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2141800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2335700</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>877800</v>
+        <v>863200</v>
       </c>
       <c r="E18" s="3">
-        <v>879400</v>
+        <v>839200</v>
       </c>
       <c r="F18" s="3">
-        <v>1047200</v>
+        <v>840700</v>
       </c>
       <c r="G18" s="3">
-        <v>831600</v>
+        <v>1001100</v>
       </c>
       <c r="H18" s="3">
-        <v>791900</v>
+        <v>795000</v>
       </c>
       <c r="I18" s="3">
-        <v>828100</v>
+        <v>757000</v>
       </c>
       <c r="J18" s="3">
+        <v>791700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1489700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>718100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-75700</v>
+        <v>-209200</v>
       </c>
       <c r="E20" s="3">
-        <v>-103700</v>
+        <v>-72400</v>
       </c>
       <c r="F20" s="3">
-        <v>-157400</v>
+        <v>-99200</v>
       </c>
       <c r="G20" s="3">
-        <v>-151800</v>
+        <v>-150500</v>
       </c>
       <c r="H20" s="3">
-        <v>-24600</v>
+        <v>-145100</v>
       </c>
       <c r="I20" s="3">
-        <v>-192100</v>
+        <v>-23500</v>
       </c>
       <c r="J20" s="3">
+        <v>-183600</v>
+      </c>
+      <c r="K20" s="3">
         <v>242800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-136800</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1089600</v>
+        <v>939000</v>
       </c>
       <c r="E21" s="3">
-        <v>1036100</v>
+        <v>1041700</v>
       </c>
       <c r="F21" s="3">
-        <v>1176000</v>
+        <v>990500</v>
       </c>
       <c r="G21" s="3">
-        <v>948000</v>
+        <v>1124200</v>
       </c>
       <c r="H21" s="3">
-        <v>1021700</v>
+        <v>906300</v>
       </c>
       <c r="I21" s="3">
-        <v>883300</v>
+        <v>976800</v>
       </c>
       <c r="J21" s="3">
+        <v>844400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1999500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>841000</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>109500</v>
+        <v>129400</v>
       </c>
       <c r="E22" s="3">
-        <v>77800</v>
+        <v>104700</v>
       </c>
       <c r="F22" s="3">
-        <v>86600</v>
+        <v>74400</v>
       </c>
       <c r="G22" s="3">
-        <v>68700</v>
+        <v>82800</v>
       </c>
       <c r="H22" s="3">
-        <v>59400</v>
+        <v>65700</v>
       </c>
       <c r="I22" s="3">
-        <v>65500</v>
+        <v>56800</v>
       </c>
       <c r="J22" s="3">
+        <v>62600</v>
+      </c>
+      <c r="K22" s="3">
         <v>76100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>692500</v>
+        <v>524600</v>
       </c>
       <c r="E23" s="3">
-        <v>697800</v>
+        <v>662000</v>
       </c>
       <c r="F23" s="3">
-        <v>803200</v>
+        <v>667100</v>
       </c>
       <c r="G23" s="3">
-        <v>611100</v>
+        <v>767900</v>
       </c>
       <c r="H23" s="3">
-        <v>707900</v>
+        <v>584200</v>
       </c>
       <c r="I23" s="3">
-        <v>570500</v>
+        <v>676700</v>
       </c>
       <c r="J23" s="3">
+        <v>545400</v>
+      </c>
+      <c r="K23" s="3">
         <v>1656500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>475800</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>92900</v>
+        <v>-76900</v>
       </c>
       <c r="E24" s="3">
-        <v>7200</v>
+        <v>88800</v>
       </c>
       <c r="F24" s="3">
-        <v>69900</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>-115500</v>
+        <v>66800</v>
       </c>
       <c r="H24" s="3">
-        <v>134500</v>
+        <v>-110400</v>
       </c>
       <c r="I24" s="3">
-        <v>35600</v>
+        <v>128600</v>
       </c>
       <c r="J24" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K24" s="3">
         <v>308000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>599600</v>
+        <v>601500</v>
       </c>
       <c r="E26" s="3">
-        <v>690600</v>
+        <v>573300</v>
       </c>
       <c r="F26" s="3">
-        <v>733300</v>
+        <v>660200</v>
       </c>
       <c r="G26" s="3">
-        <v>726600</v>
+        <v>701000</v>
       </c>
       <c r="H26" s="3">
-        <v>573300</v>
+        <v>694600</v>
       </c>
       <c r="I26" s="3">
-        <v>534900</v>
+        <v>548100</v>
       </c>
       <c r="J26" s="3">
+        <v>511400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1348400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>581200</v>
+        <v>581600</v>
       </c>
       <c r="E27" s="3">
-        <v>667900</v>
+        <v>555600</v>
       </c>
       <c r="F27" s="3">
-        <v>705900</v>
+        <v>638500</v>
       </c>
       <c r="G27" s="3">
-        <v>695200</v>
+        <v>674900</v>
       </c>
       <c r="H27" s="3">
-        <v>564700</v>
+        <v>664600</v>
       </c>
       <c r="I27" s="3">
-        <v>513800</v>
+        <v>539900</v>
       </c>
       <c r="J27" s="3">
+        <v>491200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1328000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>75700</v>
+        <v>209200</v>
       </c>
       <c r="E32" s="3">
-        <v>103700</v>
+        <v>72400</v>
       </c>
       <c r="F32" s="3">
-        <v>157400</v>
+        <v>99200</v>
       </c>
       <c r="G32" s="3">
-        <v>151800</v>
+        <v>150500</v>
       </c>
       <c r="H32" s="3">
-        <v>24600</v>
+        <v>145100</v>
       </c>
       <c r="I32" s="3">
-        <v>192100</v>
+        <v>23500</v>
       </c>
       <c r="J32" s="3">
+        <v>183600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-242800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>581200</v>
+        <v>581600</v>
       </c>
       <c r="E33" s="3">
-        <v>667900</v>
+        <v>555600</v>
       </c>
       <c r="F33" s="3">
-        <v>705900</v>
+        <v>638500</v>
       </c>
       <c r="G33" s="3">
-        <v>695200</v>
+        <v>674900</v>
       </c>
       <c r="H33" s="3">
-        <v>564700</v>
+        <v>664600</v>
       </c>
       <c r="I33" s="3">
-        <v>513800</v>
+        <v>539900</v>
       </c>
       <c r="J33" s="3">
+        <v>491200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1328000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>581200</v>
+        <v>581600</v>
       </c>
       <c r="E35" s="3">
-        <v>667900</v>
+        <v>555600</v>
       </c>
       <c r="F35" s="3">
-        <v>705900</v>
+        <v>638500</v>
       </c>
       <c r="G35" s="3">
-        <v>695200</v>
+        <v>674900</v>
       </c>
       <c r="H35" s="3">
-        <v>564700</v>
+        <v>664600</v>
       </c>
       <c r="I35" s="3">
-        <v>513800</v>
+        <v>539900</v>
       </c>
       <c r="J35" s="3">
+        <v>491200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1328000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,269 +1619,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2765100</v>
+        <v>3313900</v>
       </c>
       <c r="E41" s="3">
-        <v>2522200</v>
+        <v>2643400</v>
       </c>
       <c r="F41" s="3">
-        <v>3254000</v>
+        <v>2411200</v>
       </c>
       <c r="G41" s="3">
-        <v>3514000</v>
+        <v>3110900</v>
       </c>
       <c r="H41" s="3">
-        <v>2596800</v>
+        <v>3359400</v>
       </c>
       <c r="I41" s="3">
-        <v>3382900</v>
+        <v>2482600</v>
       </c>
       <c r="J41" s="3">
+        <v>3234100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3344600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4239000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300500</v>
+        <v>252100</v>
       </c>
       <c r="E42" s="3">
-        <v>263400</v>
+        <v>287300</v>
       </c>
       <c r="F42" s="3">
-        <v>374700</v>
+        <v>251800</v>
       </c>
       <c r="G42" s="3">
-        <v>400100</v>
+        <v>358200</v>
       </c>
       <c r="H42" s="3">
-        <v>243800</v>
+        <v>382500</v>
       </c>
       <c r="I42" s="3">
-        <v>401100</v>
+        <v>233000</v>
       </c>
       <c r="J42" s="3">
+        <v>383500</v>
+      </c>
+      <c r="K42" s="3">
         <v>332700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>282400</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1566700</v>
+        <v>1514400</v>
       </c>
       <c r="E43" s="3">
-        <v>1364800</v>
+        <v>1497800</v>
       </c>
       <c r="F43" s="3">
-        <v>1449000</v>
+        <v>1304700</v>
       </c>
       <c r="G43" s="3">
-        <v>1279600</v>
+        <v>1385300</v>
       </c>
       <c r="H43" s="3">
-        <v>1285200</v>
+        <v>1223300</v>
       </c>
       <c r="I43" s="3">
-        <v>1245400</v>
+        <v>1228700</v>
       </c>
       <c r="J43" s="3">
+        <v>1190600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1485400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1493200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2463400</v>
+        <v>2337700</v>
       </c>
       <c r="E44" s="3">
-        <v>2236100</v>
+        <v>2355000</v>
       </c>
       <c r="F44" s="3">
-        <v>2152800</v>
+        <v>2137700</v>
       </c>
       <c r="G44" s="3">
-        <v>1861300</v>
+        <v>2058100</v>
       </c>
       <c r="H44" s="3">
-        <v>1875500</v>
+        <v>1779500</v>
       </c>
       <c r="I44" s="3">
-        <v>1897900</v>
+        <v>1793000</v>
       </c>
       <c r="J44" s="3">
+        <v>1814400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1488500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1436800</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>387500</v>
+        <v>356900</v>
       </c>
       <c r="E45" s="3">
-        <v>361300</v>
+        <v>370500</v>
       </c>
       <c r="F45" s="3">
-        <v>328800</v>
+        <v>345400</v>
       </c>
       <c r="G45" s="3">
-        <v>420100</v>
+        <v>314300</v>
       </c>
       <c r="H45" s="3">
-        <v>399200</v>
+        <v>401600</v>
       </c>
       <c r="I45" s="3">
-        <v>325300</v>
+        <v>381700</v>
       </c>
       <c r="J45" s="3">
+        <v>311000</v>
+      </c>
+      <c r="K45" s="3">
         <v>265400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200400</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7483300</v>
+        <v>7774900</v>
       </c>
       <c r="E46" s="3">
-        <v>6747700</v>
+        <v>7154100</v>
       </c>
       <c r="F46" s="3">
-        <v>7559300</v>
+        <v>6450800</v>
       </c>
       <c r="G46" s="3">
-        <v>7475200</v>
+        <v>7226800</v>
       </c>
       <c r="H46" s="3">
-        <v>6400500</v>
+        <v>7146300</v>
       </c>
       <c r="I46" s="3">
-        <v>7252600</v>
+        <v>6118900</v>
       </c>
       <c r="J46" s="3">
+        <v>6933500</v>
+      </c>
+      <c r="K46" s="3">
         <v>6916500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7651600</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2219700</v>
+        <v>2036900</v>
       </c>
       <c r="E47" s="3">
-        <v>2521600</v>
+        <v>2122000</v>
       </c>
       <c r="F47" s="3">
-        <v>2625300</v>
+        <v>2410700</v>
       </c>
       <c r="G47" s="3">
-        <v>2428200</v>
+        <v>2509800</v>
       </c>
       <c r="H47" s="3">
-        <v>2440000</v>
+        <v>2321400</v>
       </c>
       <c r="I47" s="3">
-        <v>2191300</v>
+        <v>2332700</v>
       </c>
       <c r="J47" s="3">
+        <v>2094900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2205400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1048400</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5751000</v>
+        <v>5599000</v>
       </c>
       <c r="E48" s="3">
-        <v>5380600</v>
+        <v>5498000</v>
       </c>
       <c r="F48" s="3">
-        <v>5719200</v>
+        <v>5143900</v>
       </c>
       <c r="G48" s="3">
-        <v>5329300</v>
+        <v>5467600</v>
       </c>
       <c r="H48" s="3">
-        <v>5029900</v>
+        <v>5094800</v>
       </c>
       <c r="I48" s="3">
-        <v>5220700</v>
+        <v>4808600</v>
       </c>
       <c r="J48" s="3">
+        <v>4991000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4847200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4977800</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9761700</v>
+        <v>9505700</v>
       </c>
       <c r="E49" s="3">
-        <v>9183300</v>
+        <v>9332200</v>
       </c>
       <c r="F49" s="3">
-        <v>10000300</v>
+        <v>8779300</v>
       </c>
       <c r="G49" s="3">
-        <v>9762600</v>
+        <v>9560400</v>
       </c>
       <c r="H49" s="3">
-        <v>9293200</v>
+        <v>9333100</v>
       </c>
       <c r="I49" s="3">
-        <v>9974900</v>
+        <v>8884300</v>
       </c>
       <c r="J49" s="3">
+        <v>9536000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9316100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9662700</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1523400</v>
+        <v>1662200</v>
       </c>
       <c r="E52" s="3">
-        <v>1098900</v>
+        <v>1456400</v>
       </c>
       <c r="F52" s="3">
-        <v>1220400</v>
+        <v>1050500</v>
       </c>
       <c r="G52" s="3">
-        <v>1450300</v>
+        <v>1166700</v>
       </c>
       <c r="H52" s="3">
-        <v>1189300</v>
+        <v>1386500</v>
       </c>
       <c r="I52" s="3">
-        <v>1470500</v>
+        <v>1137000</v>
       </c>
       <c r="J52" s="3">
+        <v>1405800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1215800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1524500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26739200</v>
+        <v>26578700</v>
       </c>
       <c r="E54" s="3">
-        <v>24932200</v>
+        <v>25562700</v>
       </c>
       <c r="F54" s="3">
-        <v>27124500</v>
+        <v>23835300</v>
       </c>
       <c r="G54" s="3">
-        <v>26445600</v>
+        <v>25931100</v>
       </c>
       <c r="H54" s="3">
-        <v>24352900</v>
+        <v>25282100</v>
       </c>
       <c r="I54" s="3">
-        <v>26109900</v>
+        <v>23281500</v>
       </c>
       <c r="J54" s="3">
+        <v>24961100</v>
+      </c>
+      <c r="K54" s="3">
         <v>24501000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24865000</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,182 +2095,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3887700</v>
+        <v>3804600</v>
       </c>
       <c r="E57" s="3">
-        <v>4079800</v>
+        <v>3716600</v>
       </c>
       <c r="F57" s="3">
-        <v>4670900</v>
+        <v>3900300</v>
       </c>
       <c r="G57" s="3">
-        <v>3596800</v>
+        <v>4465400</v>
       </c>
       <c r="H57" s="3">
-        <v>3497700</v>
+        <v>3438600</v>
       </c>
       <c r="I57" s="3">
-        <v>3803900</v>
+        <v>3343800</v>
       </c>
       <c r="J57" s="3">
+        <v>3636500</v>
+      </c>
+      <c r="K57" s="3">
         <v>3558200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2940000</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>175000</v>
+        <v>142500</v>
       </c>
       <c r="E58" s="3">
-        <v>159700</v>
+        <v>167300</v>
       </c>
       <c r="F58" s="3">
-        <v>165800</v>
+        <v>152600</v>
       </c>
       <c r="G58" s="3">
-        <v>174000</v>
+        <v>158500</v>
       </c>
       <c r="H58" s="3">
-        <v>167300</v>
+        <v>166400</v>
       </c>
       <c r="I58" s="3">
-        <v>508600</v>
+        <v>159900</v>
       </c>
       <c r="J58" s="3">
+        <v>486200</v>
+      </c>
+      <c r="K58" s="3">
         <v>536000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>845100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2571100</v>
+        <v>2597300</v>
       </c>
       <c r="E59" s="3">
-        <v>2253700</v>
+        <v>2458000</v>
       </c>
       <c r="F59" s="3">
-        <v>2769500</v>
+        <v>2154500</v>
       </c>
       <c r="G59" s="3">
-        <v>2316900</v>
+        <v>2647600</v>
       </c>
       <c r="H59" s="3">
-        <v>1969500</v>
+        <v>2214900</v>
       </c>
       <c r="I59" s="3">
-        <v>1926600</v>
+        <v>1882900</v>
       </c>
       <c r="J59" s="3">
+        <v>1841800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2457400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2139800</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6633800</v>
+        <v>6544400</v>
       </c>
       <c r="E60" s="3">
-        <v>6493200</v>
+        <v>6341900</v>
       </c>
       <c r="F60" s="3">
-        <v>7606200</v>
+        <v>6207500</v>
       </c>
       <c r="G60" s="3">
-        <v>6087700</v>
+        <v>7271500</v>
       </c>
       <c r="H60" s="3">
-        <v>5634500</v>
+        <v>5819900</v>
       </c>
       <c r="I60" s="3">
-        <v>6239100</v>
+        <v>5386600</v>
       </c>
       <c r="J60" s="3">
+        <v>5964600</v>
+      </c>
+      <c r="K60" s="3">
         <v>6551600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5924900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>450400</v>
+        <v>415100</v>
       </c>
       <c r="E61" s="3">
-        <v>424800</v>
+        <v>430600</v>
       </c>
       <c r="F61" s="3">
-        <v>441000</v>
+        <v>406100</v>
       </c>
       <c r="G61" s="3">
-        <v>418500</v>
+        <v>421600</v>
       </c>
       <c r="H61" s="3">
-        <v>418000</v>
+        <v>400100</v>
       </c>
       <c r="I61" s="3">
-        <v>475200</v>
+        <v>399600</v>
       </c>
       <c r="J61" s="3">
+        <v>454300</v>
+      </c>
+      <c r="K61" s="3">
         <v>401900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>496500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2514200</v>
+        <v>2490900</v>
       </c>
       <c r="E62" s="3">
-        <v>2319800</v>
+        <v>2403600</v>
       </c>
       <c r="F62" s="3">
-        <v>2635100</v>
+        <v>2217700</v>
       </c>
       <c r="G62" s="3">
-        <v>2685500</v>
+        <v>2519200</v>
       </c>
       <c r="H62" s="3">
-        <v>2624500</v>
+        <v>2567400</v>
       </c>
       <c r="I62" s="3">
-        <v>3029100</v>
+        <v>2509100</v>
       </c>
       <c r="J62" s="3">
+        <v>2895900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2840400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2871000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9857500</v>
+        <v>9707300</v>
       </c>
       <c r="E66" s="3">
-        <v>9486900</v>
+        <v>9423800</v>
       </c>
       <c r="F66" s="3">
-        <v>10951300</v>
+        <v>9069500</v>
       </c>
       <c r="G66" s="3">
-        <v>9464500</v>
+        <v>10469500</v>
       </c>
       <c r="H66" s="3">
-        <v>8914200</v>
+        <v>9048100</v>
       </c>
       <c r="I66" s="3">
-        <v>10053800</v>
+        <v>8522000</v>
       </c>
       <c r="J66" s="3">
+        <v>9611500</v>
+      </c>
+      <c r="K66" s="3">
         <v>10055300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9599200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8061300</v>
+        <v>8502700</v>
       </c>
       <c r="E72" s="3">
-        <v>7268900</v>
+        <v>7706700</v>
       </c>
       <c r="F72" s="3">
-        <v>6467100</v>
+        <v>6949100</v>
       </c>
       <c r="G72" s="3">
-        <v>7493600</v>
+        <v>6182600</v>
       </c>
       <c r="H72" s="3">
-        <v>6683200</v>
+        <v>7163900</v>
       </c>
       <c r="I72" s="3">
-        <v>6012600</v>
+        <v>6389200</v>
       </c>
       <c r="J72" s="3">
+        <v>5748100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5377600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5479700</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16881700</v>
+        <v>16871400</v>
       </c>
       <c r="E76" s="3">
-        <v>15445300</v>
+        <v>16139000</v>
       </c>
       <c r="F76" s="3">
-        <v>16173200</v>
+        <v>14765700</v>
       </c>
       <c r="G76" s="3">
-        <v>16981100</v>
+        <v>15461700</v>
       </c>
       <c r="H76" s="3">
-        <v>15438700</v>
+        <v>16234000</v>
       </c>
       <c r="I76" s="3">
-        <v>16056000</v>
+        <v>14759500</v>
       </c>
       <c r="J76" s="3">
+        <v>15349600</v>
+      </c>
+      <c r="K76" s="3">
         <v>14445700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15265800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>581200</v>
+        <v>581600</v>
       </c>
       <c r="E81" s="3">
-        <v>667900</v>
+        <v>555600</v>
       </c>
       <c r="F81" s="3">
-        <v>705900</v>
+        <v>638500</v>
       </c>
       <c r="G81" s="3">
-        <v>695200</v>
+        <v>674900</v>
       </c>
       <c r="H81" s="3">
-        <v>564700</v>
+        <v>664600</v>
       </c>
       <c r="I81" s="3">
-        <v>513800</v>
+        <v>539900</v>
       </c>
       <c r="J81" s="3">
+        <v>491200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1328000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>287600</v>
+        <v>285000</v>
       </c>
       <c r="E83" s="3">
-        <v>260500</v>
+        <v>275000</v>
       </c>
       <c r="F83" s="3">
-        <v>286200</v>
+        <v>249000</v>
       </c>
       <c r="G83" s="3">
-        <v>268200</v>
+        <v>273600</v>
       </c>
       <c r="H83" s="3">
-        <v>254400</v>
+        <v>256400</v>
       </c>
       <c r="I83" s="3">
-        <v>247300</v>
+        <v>243200</v>
       </c>
       <c r="J83" s="3">
+        <v>236400</v>
+      </c>
+      <c r="K83" s="3">
         <v>267000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>431000</v>
+        <v>1143000</v>
       </c>
       <c r="E89" s="3">
-        <v>101700</v>
+        <v>412000</v>
       </c>
       <c r="F89" s="3">
-        <v>2314200</v>
+        <v>97200</v>
       </c>
       <c r="G89" s="3">
-        <v>1252100</v>
+        <v>2212400</v>
       </c>
       <c r="H89" s="3">
-        <v>360200</v>
+        <v>1197000</v>
       </c>
       <c r="I89" s="3">
-        <v>555200</v>
+        <v>344300</v>
       </c>
       <c r="J89" s="3">
+        <v>530700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1642600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1385400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-343100</v>
+        <v>-347200</v>
       </c>
       <c r="E91" s="3">
-        <v>-173900</v>
+        <v>-328000</v>
       </c>
       <c r="F91" s="3">
-        <v>-589100</v>
+        <v>-166200</v>
       </c>
       <c r="G91" s="3">
-        <v>-332600</v>
+        <v>-563200</v>
       </c>
       <c r="H91" s="3">
-        <v>-320900</v>
+        <v>-318000</v>
       </c>
       <c r="I91" s="3">
-        <v>-259800</v>
+        <v>-306800</v>
       </c>
       <c r="J91" s="3">
+        <v>-248300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-272900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-224000</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-382100</v>
+        <v>-308500</v>
       </c>
       <c r="E94" s="3">
-        <v>-60100</v>
+        <v>-365300</v>
       </c>
       <c r="F94" s="3">
-        <v>-524500</v>
+        <v>-57500</v>
       </c>
       <c r="G94" s="3">
-        <v>-484700</v>
+        <v>-501400</v>
       </c>
       <c r="H94" s="3">
-        <v>-167300</v>
+        <v>-463400</v>
       </c>
       <c r="I94" s="3">
-        <v>-337200</v>
+        <v>-160000</v>
       </c>
       <c r="J94" s="3">
+        <v>-322300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-322900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-521300</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28000</v>
+        <v>-22000</v>
       </c>
       <c r="E96" s="3">
-        <v>-4300</v>
+        <v>-26700</v>
       </c>
       <c r="F96" s="3">
-        <v>-1882200</v>
+        <v>-4100</v>
       </c>
       <c r="G96" s="3">
-        <v>-4800</v>
+        <v>-1799400</v>
       </c>
       <c r="H96" s="3">
-        <v>-45400</v>
+        <v>-4600</v>
       </c>
       <c r="I96" s="3">
-        <v>-242900</v>
+        <v>-43400</v>
       </c>
       <c r="J96" s="3">
+        <v>-232200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1305100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2200</v>
+        <v>-173300</v>
       </c>
       <c r="E100" s="3">
-        <v>-532200</v>
+        <v>-2100</v>
       </c>
       <c r="F100" s="3">
-        <v>-2059600</v>
+        <v>-508800</v>
       </c>
       <c r="G100" s="3">
-        <v>30300</v>
+        <v>-1969000</v>
       </c>
       <c r="H100" s="3">
-        <v>-762200</v>
+        <v>29000</v>
       </c>
       <c r="I100" s="3">
-        <v>-347900</v>
+        <v>-728700</v>
       </c>
       <c r="J100" s="3">
+        <v>-332600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1874600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-168600</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>112700</v>
+        <v>24200</v>
       </c>
       <c r="E101" s="3">
-        <v>-253200</v>
+        <v>107700</v>
       </c>
       <c r="F101" s="3">
-        <v>45300</v>
+        <v>-242000</v>
       </c>
       <c r="G101" s="3">
-        <v>96400</v>
+        <v>43300</v>
       </c>
       <c r="H101" s="3">
-        <v>-235100</v>
+        <v>92200</v>
       </c>
       <c r="I101" s="3">
-        <v>168200</v>
+        <v>-224700</v>
       </c>
       <c r="J101" s="3">
+        <v>160800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-206600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>159300</v>
+        <v>685300</v>
       </c>
       <c r="E102" s="3">
-        <v>-743800</v>
+        <v>152300</v>
       </c>
       <c r="F102" s="3">
-        <v>-224500</v>
+        <v>-711100</v>
       </c>
       <c r="G102" s="3">
-        <v>894200</v>
+        <v>-214700</v>
       </c>
       <c r="H102" s="3">
-        <v>-804500</v>
+        <v>854900</v>
       </c>
       <c r="I102" s="3">
-        <v>38300</v>
+        <v>-769100</v>
       </c>
       <c r="J102" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-761500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>828500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>ABEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3851700</v>
+        <v>4394000</v>
       </c>
       <c r="E8" s="3">
-        <v>3365600</v>
+        <v>3986400</v>
       </c>
       <c r="F8" s="3">
-        <v>3449800</v>
+        <v>3483200</v>
       </c>
       <c r="G8" s="3">
-        <v>4118000</v>
+        <v>3570400</v>
       </c>
       <c r="H8" s="3">
-        <v>3459800</v>
+        <v>4262000</v>
       </c>
       <c r="I8" s="3">
-        <v>2939400</v>
+        <v>3580700</v>
       </c>
       <c r="J8" s="3">
+        <v>3042100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3113100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3631500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3053800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1992100</v>
+        <v>2127100</v>
       </c>
       <c r="E9" s="3">
-        <v>1753800</v>
+        <v>2061800</v>
       </c>
       <c r="F9" s="3">
-        <v>1761400</v>
+        <v>1815100</v>
       </c>
       <c r="G9" s="3">
-        <v>1963700</v>
+        <v>1822900</v>
       </c>
       <c r="H9" s="3">
-        <v>1731200</v>
+        <v>2032400</v>
       </c>
       <c r="I9" s="3">
-        <v>1490200</v>
+        <v>1791700</v>
       </c>
       <c r="J9" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1486500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1604300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1452700</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1859600</v>
+        <v>2267000</v>
       </c>
       <c r="E10" s="3">
-        <v>1611700</v>
+        <v>1924600</v>
       </c>
       <c r="F10" s="3">
-        <v>1688400</v>
+        <v>1668100</v>
       </c>
       <c r="G10" s="3">
-        <v>2154300</v>
+        <v>1747500</v>
       </c>
       <c r="H10" s="3">
-        <v>1728600</v>
+        <v>2229600</v>
       </c>
       <c r="I10" s="3">
-        <v>1449200</v>
+        <v>1789100</v>
       </c>
       <c r="J10" s="3">
+        <v>1499800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1626600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2027200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1601100</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -858,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +906,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-100800</v>
+        <v>-38200</v>
       </c>
       <c r="E14" s="3">
-        <v>-78600</v>
+        <v>-104400</v>
       </c>
       <c r="F14" s="3">
-        <v>-56900</v>
+        <v>-81300</v>
       </c>
       <c r="G14" s="3">
-        <v>-19400</v>
+        <v>-58800</v>
       </c>
       <c r="H14" s="3">
-        <v>-31800</v>
+        <v>-20100</v>
       </c>
       <c r="I14" s="3">
-        <v>-12400</v>
+        <v>-33000</v>
       </c>
       <c r="J14" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-33700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-9500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -954,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2988500</v>
+        <v>3296200</v>
       </c>
       <c r="E17" s="3">
-        <v>2526400</v>
+        <v>3093000</v>
       </c>
       <c r="F17" s="3">
-        <v>2609100</v>
+        <v>2614700</v>
       </c>
       <c r="G17" s="3">
-        <v>3116900</v>
+        <v>2700300</v>
       </c>
       <c r="H17" s="3">
-        <v>2664800</v>
+        <v>3225900</v>
       </c>
       <c r="I17" s="3">
-        <v>2182400</v>
+        <v>2757900</v>
       </c>
       <c r="J17" s="3">
+        <v>2258700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2321500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2141800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2335700</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>863200</v>
+        <v>1097800</v>
       </c>
       <c r="E18" s="3">
-        <v>839200</v>
+        <v>893400</v>
       </c>
       <c r="F18" s="3">
-        <v>840700</v>
+        <v>868500</v>
       </c>
       <c r="G18" s="3">
-        <v>1001100</v>
+        <v>870100</v>
       </c>
       <c r="H18" s="3">
-        <v>795000</v>
+        <v>1036100</v>
       </c>
       <c r="I18" s="3">
-        <v>757000</v>
+        <v>822800</v>
       </c>
       <c r="J18" s="3">
+        <v>783500</v>
+      </c>
+      <c r="K18" s="3">
         <v>791700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1489700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>718100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,168 +1075,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-209200</v>
+        <v>-128400</v>
       </c>
       <c r="E20" s="3">
-        <v>-72400</v>
+        <v>-216500</v>
       </c>
       <c r="F20" s="3">
-        <v>-99200</v>
+        <v>-74900</v>
       </c>
       <c r="G20" s="3">
-        <v>-150500</v>
+        <v>-102600</v>
       </c>
       <c r="H20" s="3">
-        <v>-145100</v>
+        <v>-155700</v>
       </c>
       <c r="I20" s="3">
-        <v>-23500</v>
+        <v>-150200</v>
       </c>
       <c r="J20" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-183600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>242800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-136800</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>939000</v>
+        <v>1285500</v>
       </c>
       <c r="E21" s="3">
-        <v>1041700</v>
+        <v>971800</v>
       </c>
       <c r="F21" s="3">
-        <v>990500</v>
+        <v>1078100</v>
       </c>
       <c r="G21" s="3">
-        <v>1124200</v>
+        <v>1025100</v>
       </c>
       <c r="H21" s="3">
-        <v>906300</v>
+        <v>1163500</v>
       </c>
       <c r="I21" s="3">
-        <v>976800</v>
+        <v>938000</v>
       </c>
       <c r="J21" s="3">
+        <v>1010900</v>
+      </c>
+      <c r="K21" s="3">
         <v>844400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1999500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>841000</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>129400</v>
+        <v>131500</v>
       </c>
       <c r="E22" s="3">
-        <v>104700</v>
+        <v>133900</v>
       </c>
       <c r="F22" s="3">
-        <v>74400</v>
+        <v>108400</v>
       </c>
       <c r="G22" s="3">
-        <v>82800</v>
+        <v>77000</v>
       </c>
       <c r="H22" s="3">
-        <v>65700</v>
+        <v>85700</v>
       </c>
       <c r="I22" s="3">
-        <v>56800</v>
+        <v>68000</v>
       </c>
       <c r="J22" s="3">
+        <v>58800</v>
+      </c>
+      <c r="K22" s="3">
         <v>62600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>76100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>524600</v>
+        <v>837900</v>
       </c>
       <c r="E23" s="3">
-        <v>662000</v>
+        <v>542900</v>
       </c>
       <c r="F23" s="3">
-        <v>667100</v>
+        <v>685200</v>
       </c>
       <c r="G23" s="3">
-        <v>767900</v>
+        <v>690400</v>
       </c>
       <c r="H23" s="3">
-        <v>584200</v>
+        <v>794700</v>
       </c>
       <c r="I23" s="3">
-        <v>676700</v>
+        <v>604600</v>
       </c>
       <c r="J23" s="3">
+        <v>700400</v>
+      </c>
+      <c r="K23" s="3">
         <v>545400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1656500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>475800</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-76900</v>
+        <v>-146400</v>
       </c>
       <c r="E24" s="3">
-        <v>88800</v>
+        <v>-79600</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>91900</v>
       </c>
       <c r="G24" s="3">
-        <v>66800</v>
+        <v>7100</v>
       </c>
       <c r="H24" s="3">
-        <v>-110400</v>
+        <v>69200</v>
       </c>
       <c r="I24" s="3">
-        <v>128600</v>
+        <v>-114300</v>
       </c>
       <c r="J24" s="3">
+        <v>133100</v>
+      </c>
+      <c r="K24" s="3">
         <v>34100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>308000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>601500</v>
+        <v>984300</v>
       </c>
       <c r="E26" s="3">
-        <v>573300</v>
+        <v>622500</v>
       </c>
       <c r="F26" s="3">
-        <v>660200</v>
+        <v>593300</v>
       </c>
       <c r="G26" s="3">
-        <v>701000</v>
+        <v>683300</v>
       </c>
       <c r="H26" s="3">
-        <v>694600</v>
+        <v>725500</v>
       </c>
       <c r="I26" s="3">
-        <v>548100</v>
+        <v>718900</v>
       </c>
       <c r="J26" s="3">
+        <v>567300</v>
+      </c>
+      <c r="K26" s="3">
         <v>511400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1348400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>581600</v>
+        <v>961700</v>
       </c>
       <c r="E27" s="3">
-        <v>555600</v>
+        <v>601900</v>
       </c>
       <c r="F27" s="3">
-        <v>638500</v>
+        <v>575000</v>
       </c>
       <c r="G27" s="3">
-        <v>674900</v>
+        <v>660800</v>
       </c>
       <c r="H27" s="3">
-        <v>664600</v>
+        <v>698500</v>
       </c>
       <c r="I27" s="3">
-        <v>539900</v>
+        <v>687900</v>
       </c>
       <c r="J27" s="3">
+        <v>558800</v>
+      </c>
+      <c r="K27" s="3">
         <v>491200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1328000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>209200</v>
+        <v>128400</v>
       </c>
       <c r="E32" s="3">
-        <v>72400</v>
+        <v>216500</v>
       </c>
       <c r="F32" s="3">
-        <v>99200</v>
+        <v>74900</v>
       </c>
       <c r="G32" s="3">
-        <v>150500</v>
+        <v>102600</v>
       </c>
       <c r="H32" s="3">
-        <v>145100</v>
+        <v>155700</v>
       </c>
       <c r="I32" s="3">
-        <v>23500</v>
+        <v>150200</v>
       </c>
       <c r="J32" s="3">
+        <v>24300</v>
+      </c>
+      <c r="K32" s="3">
         <v>183600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-242800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>581600</v>
+        <v>961700</v>
       </c>
       <c r="E33" s="3">
-        <v>555600</v>
+        <v>601900</v>
       </c>
       <c r="F33" s="3">
-        <v>638500</v>
+        <v>575000</v>
       </c>
       <c r="G33" s="3">
-        <v>674900</v>
+        <v>660800</v>
       </c>
       <c r="H33" s="3">
-        <v>664600</v>
+        <v>698500</v>
       </c>
       <c r="I33" s="3">
-        <v>539900</v>
+        <v>687900</v>
       </c>
       <c r="J33" s="3">
+        <v>558800</v>
+      </c>
+      <c r="K33" s="3">
         <v>491200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1328000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>581600</v>
+        <v>961700</v>
       </c>
       <c r="E35" s="3">
-        <v>555600</v>
+        <v>601900</v>
       </c>
       <c r="F35" s="3">
-        <v>638500</v>
+        <v>575000</v>
       </c>
       <c r="G35" s="3">
-        <v>674900</v>
+        <v>660800</v>
       </c>
       <c r="H35" s="3">
-        <v>664600</v>
+        <v>698500</v>
       </c>
       <c r="I35" s="3">
-        <v>539900</v>
+        <v>687900</v>
       </c>
       <c r="J35" s="3">
+        <v>558800</v>
+      </c>
+      <c r="K35" s="3">
         <v>491200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1328000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,296 +1705,324 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3313900</v>
+        <v>2890200</v>
       </c>
       <c r="E41" s="3">
-        <v>2643400</v>
+        <v>3429700</v>
       </c>
       <c r="F41" s="3">
-        <v>2411200</v>
+        <v>2735800</v>
       </c>
       <c r="G41" s="3">
-        <v>3110900</v>
+        <v>2495500</v>
       </c>
       <c r="H41" s="3">
-        <v>3359400</v>
+        <v>3219600</v>
       </c>
       <c r="I41" s="3">
-        <v>2482600</v>
+        <v>3476900</v>
       </c>
       <c r="J41" s="3">
+        <v>2569300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3234100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3344600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4239000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>252100</v>
+        <v>88000</v>
       </c>
       <c r="E42" s="3">
-        <v>287300</v>
+        <v>260900</v>
       </c>
       <c r="F42" s="3">
-        <v>251800</v>
+        <v>297400</v>
       </c>
       <c r="G42" s="3">
-        <v>358200</v>
+        <v>260600</v>
       </c>
       <c r="H42" s="3">
-        <v>382500</v>
+        <v>370700</v>
       </c>
       <c r="I42" s="3">
-        <v>233000</v>
+        <v>395900</v>
       </c>
       <c r="J42" s="3">
+        <v>241200</v>
+      </c>
+      <c r="K42" s="3">
         <v>383500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>332700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>282400</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1514400</v>
+        <v>1588300</v>
       </c>
       <c r="E43" s="3">
-        <v>1497800</v>
+        <v>1567300</v>
       </c>
       <c r="F43" s="3">
-        <v>1304700</v>
+        <v>1550100</v>
       </c>
       <c r="G43" s="3">
-        <v>1385300</v>
+        <v>1350300</v>
       </c>
       <c r="H43" s="3">
-        <v>1223300</v>
+        <v>1433700</v>
       </c>
       <c r="I43" s="3">
-        <v>1228700</v>
+        <v>1266100</v>
       </c>
       <c r="J43" s="3">
+        <v>1271600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1190600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1485400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1493200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2337700</v>
+        <v>2502300</v>
       </c>
       <c r="E44" s="3">
-        <v>2355000</v>
+        <v>2419400</v>
       </c>
       <c r="F44" s="3">
-        <v>2137700</v>
+        <v>2437400</v>
       </c>
       <c r="G44" s="3">
-        <v>2058100</v>
+        <v>2212500</v>
       </c>
       <c r="H44" s="3">
-        <v>1779500</v>
+        <v>2130000</v>
       </c>
       <c r="I44" s="3">
-        <v>1793000</v>
+        <v>1841700</v>
       </c>
       <c r="J44" s="3">
+        <v>1855600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1814400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1488500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1436800</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>356900</v>
+        <v>253700</v>
       </c>
       <c r="E45" s="3">
-        <v>370500</v>
+        <v>369300</v>
       </c>
       <c r="F45" s="3">
-        <v>345400</v>
+        <v>383400</v>
       </c>
       <c r="G45" s="3">
-        <v>314300</v>
+        <v>357400</v>
       </c>
       <c r="H45" s="3">
-        <v>401600</v>
+        <v>325300</v>
       </c>
       <c r="I45" s="3">
-        <v>381700</v>
+        <v>415600</v>
       </c>
       <c r="J45" s="3">
+        <v>395000</v>
+      </c>
+      <c r="K45" s="3">
         <v>311000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>265400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200400</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7774900</v>
+        <v>7322400</v>
       </c>
       <c r="E46" s="3">
-        <v>7154100</v>
+        <v>8046700</v>
       </c>
       <c r="F46" s="3">
-        <v>6450800</v>
+        <v>7404100</v>
       </c>
       <c r="G46" s="3">
-        <v>7226800</v>
+        <v>6676300</v>
       </c>
       <c r="H46" s="3">
-        <v>7146300</v>
+        <v>7479400</v>
       </c>
       <c r="I46" s="3">
-        <v>6118900</v>
+        <v>7396100</v>
       </c>
       <c r="J46" s="3">
+        <v>6332800</v>
+      </c>
+      <c r="K46" s="3">
         <v>6933500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6916500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7651600</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2036900</v>
+        <v>2404900</v>
       </c>
       <c r="E47" s="3">
-        <v>2122000</v>
+        <v>2108100</v>
       </c>
       <c r="F47" s="3">
-        <v>2410700</v>
+        <v>2196200</v>
       </c>
       <c r="G47" s="3">
-        <v>2509800</v>
+        <v>2495000</v>
       </c>
       <c r="H47" s="3">
-        <v>2321400</v>
+        <v>2597500</v>
       </c>
       <c r="I47" s="3">
-        <v>2332700</v>
+        <v>2402500</v>
       </c>
       <c r="J47" s="3">
+        <v>2414200</v>
+      </c>
+      <c r="K47" s="3">
         <v>2094900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2205400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1048400</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5599000</v>
+        <v>5819700</v>
       </c>
       <c r="E48" s="3">
-        <v>5498000</v>
+        <v>5794700</v>
       </c>
       <c r="F48" s="3">
-        <v>5143900</v>
+        <v>5690200</v>
       </c>
       <c r="G48" s="3">
-        <v>5467600</v>
+        <v>5323700</v>
       </c>
       <c r="H48" s="3">
-        <v>5094800</v>
+        <v>5658700</v>
       </c>
       <c r="I48" s="3">
-        <v>4808600</v>
+        <v>5272900</v>
       </c>
       <c r="J48" s="3">
+        <v>4976700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4991000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4847200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4977800</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9505700</v>
+        <v>9645900</v>
       </c>
       <c r="E49" s="3">
-        <v>9332200</v>
+        <v>9838000</v>
       </c>
       <c r="F49" s="3">
-        <v>8779300</v>
+        <v>9658500</v>
       </c>
       <c r="G49" s="3">
-        <v>9560400</v>
+        <v>9086200</v>
       </c>
       <c r="H49" s="3">
-        <v>9333100</v>
+        <v>9894500</v>
       </c>
       <c r="I49" s="3">
-        <v>8884300</v>
+        <v>9659300</v>
       </c>
       <c r="J49" s="3">
+        <v>9194900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9536000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9316100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9662700</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2088,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1662200</v>
+        <v>1519800</v>
       </c>
       <c r="E52" s="3">
-        <v>1456400</v>
+        <v>1720300</v>
       </c>
       <c r="F52" s="3">
-        <v>1050500</v>
+        <v>1507300</v>
       </c>
       <c r="G52" s="3">
-        <v>1166700</v>
+        <v>1087200</v>
       </c>
       <c r="H52" s="3">
-        <v>1386500</v>
+        <v>1207500</v>
       </c>
       <c r="I52" s="3">
-        <v>1137000</v>
+        <v>1435000</v>
       </c>
       <c r="J52" s="3">
+        <v>1176800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1405800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1215800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1524500</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2158,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26578700</v>
+        <v>26712800</v>
       </c>
       <c r="E54" s="3">
-        <v>25562700</v>
+        <v>27507800</v>
       </c>
       <c r="F54" s="3">
-        <v>23835300</v>
+        <v>26456300</v>
       </c>
       <c r="G54" s="3">
-        <v>25931100</v>
+        <v>24668400</v>
       </c>
       <c r="H54" s="3">
-        <v>25282100</v>
+        <v>26837600</v>
       </c>
       <c r="I54" s="3">
-        <v>23281500</v>
+        <v>26165900</v>
       </c>
       <c r="J54" s="3">
+        <v>24095300</v>
+      </c>
+      <c r="K54" s="3">
         <v>24961100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24501000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24865000</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,200 +2225,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3804600</v>
+        <v>4549900</v>
       </c>
       <c r="E57" s="3">
-        <v>3716600</v>
+        <v>3937600</v>
       </c>
       <c r="F57" s="3">
-        <v>3900300</v>
+        <v>3846600</v>
       </c>
       <c r="G57" s="3">
-        <v>4465400</v>
+        <v>4036700</v>
       </c>
       <c r="H57" s="3">
-        <v>3438600</v>
+        <v>4621500</v>
       </c>
       <c r="I57" s="3">
-        <v>3343800</v>
+        <v>3558800</v>
       </c>
       <c r="J57" s="3">
+        <v>3460700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3636500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3558200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2940000</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>142500</v>
+        <v>190300</v>
       </c>
       <c r="E58" s="3">
-        <v>167300</v>
+        <v>147500</v>
       </c>
       <c r="F58" s="3">
-        <v>152600</v>
+        <v>173200</v>
       </c>
       <c r="G58" s="3">
-        <v>158500</v>
+        <v>158000</v>
       </c>
       <c r="H58" s="3">
-        <v>166400</v>
+        <v>164000</v>
       </c>
       <c r="I58" s="3">
-        <v>159900</v>
+        <v>172200</v>
       </c>
       <c r="J58" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K58" s="3">
         <v>486200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>536000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>845100</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2597300</v>
+        <v>3109700</v>
       </c>
       <c r="E59" s="3">
-        <v>2458000</v>
+        <v>2688100</v>
       </c>
       <c r="F59" s="3">
-        <v>2154500</v>
+        <v>2543900</v>
       </c>
       <c r="G59" s="3">
-        <v>2647600</v>
+        <v>2229900</v>
       </c>
       <c r="H59" s="3">
-        <v>2214900</v>
+        <v>2740200</v>
       </c>
       <c r="I59" s="3">
-        <v>1882900</v>
+        <v>2292400</v>
       </c>
       <c r="J59" s="3">
+        <v>1948700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1841800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2457400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2139800</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6544400</v>
+        <v>7849900</v>
       </c>
       <c r="E60" s="3">
-        <v>6341900</v>
+        <v>6773100</v>
       </c>
       <c r="F60" s="3">
-        <v>6207500</v>
+        <v>6563600</v>
       </c>
       <c r="G60" s="3">
-        <v>7271500</v>
+        <v>6424500</v>
       </c>
       <c r="H60" s="3">
-        <v>5819900</v>
+        <v>7525700</v>
       </c>
       <c r="I60" s="3">
-        <v>5386600</v>
+        <v>6023300</v>
       </c>
       <c r="J60" s="3">
+        <v>5574900</v>
+      </c>
+      <c r="K60" s="3">
         <v>5964600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6551600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5924900</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>415100</v>
+        <v>539900</v>
       </c>
       <c r="E61" s="3">
-        <v>430600</v>
+        <v>429700</v>
       </c>
       <c r="F61" s="3">
-        <v>406100</v>
+        <v>445700</v>
       </c>
       <c r="G61" s="3">
-        <v>421600</v>
+        <v>420300</v>
       </c>
       <c r="H61" s="3">
-        <v>400100</v>
+        <v>436300</v>
       </c>
       <c r="I61" s="3">
-        <v>399600</v>
+        <v>414100</v>
       </c>
       <c r="J61" s="3">
+        <v>413600</v>
+      </c>
+      <c r="K61" s="3">
         <v>454300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>401900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>496500</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2490900</v>
+        <v>2188300</v>
       </c>
       <c r="E62" s="3">
-        <v>2403600</v>
+        <v>2577900</v>
       </c>
       <c r="F62" s="3">
-        <v>2217700</v>
+        <v>2487600</v>
       </c>
       <c r="G62" s="3">
-        <v>2519200</v>
+        <v>2295300</v>
       </c>
       <c r="H62" s="3">
-        <v>2567400</v>
+        <v>2607200</v>
       </c>
       <c r="I62" s="3">
-        <v>2509100</v>
+        <v>2657100</v>
       </c>
       <c r="J62" s="3">
+        <v>2596800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2895900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2840400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2871000</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2538,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9707300</v>
+        <v>10843800</v>
       </c>
       <c r="E66" s="3">
-        <v>9423800</v>
+        <v>10046700</v>
       </c>
       <c r="F66" s="3">
-        <v>9069500</v>
+        <v>9753200</v>
       </c>
       <c r="G66" s="3">
-        <v>10469500</v>
+        <v>9386600</v>
       </c>
       <c r="H66" s="3">
-        <v>9048100</v>
+        <v>10835400</v>
       </c>
       <c r="I66" s="3">
-        <v>8522000</v>
+        <v>9364300</v>
       </c>
       <c r="J66" s="3">
+        <v>8819900</v>
+      </c>
+      <c r="K66" s="3">
         <v>9611500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10055300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9599200</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2728,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8502700</v>
+        <v>7541800</v>
       </c>
       <c r="E72" s="3">
-        <v>7706700</v>
+        <v>8800000</v>
       </c>
       <c r="F72" s="3">
-        <v>6949100</v>
+        <v>7976100</v>
       </c>
       <c r="G72" s="3">
-        <v>6182600</v>
+        <v>7192100</v>
       </c>
       <c r="H72" s="3">
-        <v>7163900</v>
+        <v>6398700</v>
       </c>
       <c r="I72" s="3">
-        <v>6389200</v>
+        <v>7414400</v>
       </c>
       <c r="J72" s="3">
+        <v>6612500</v>
+      </c>
+      <c r="K72" s="3">
         <v>5748100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5377600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5479700</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +2868,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16871400</v>
+        <v>15869100</v>
       </c>
       <c r="E76" s="3">
-        <v>16139000</v>
+        <v>17461200</v>
       </c>
       <c r="F76" s="3">
-        <v>14765700</v>
+        <v>16703100</v>
       </c>
       <c r="G76" s="3">
-        <v>15461700</v>
+        <v>15281900</v>
       </c>
       <c r="H76" s="3">
-        <v>16234000</v>
+        <v>16002200</v>
       </c>
       <c r="I76" s="3">
-        <v>14759500</v>
+        <v>16801500</v>
       </c>
       <c r="J76" s="3">
+        <v>15275400</v>
+      </c>
+      <c r="K76" s="3">
         <v>15349600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14445700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15265800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>581600</v>
+        <v>961700</v>
       </c>
       <c r="E81" s="3">
-        <v>555600</v>
+        <v>601900</v>
       </c>
       <c r="F81" s="3">
-        <v>638500</v>
+        <v>575000</v>
       </c>
       <c r="G81" s="3">
-        <v>674900</v>
+        <v>660800</v>
       </c>
       <c r="H81" s="3">
-        <v>664600</v>
+        <v>698500</v>
       </c>
       <c r="I81" s="3">
-        <v>539900</v>
+        <v>687900</v>
       </c>
       <c r="J81" s="3">
+        <v>558800</v>
+      </c>
+      <c r="K81" s="3">
         <v>491200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1328000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3030,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>285000</v>
+        <v>316100</v>
       </c>
       <c r="E83" s="3">
-        <v>275000</v>
+        <v>295000</v>
       </c>
       <c r="F83" s="3">
-        <v>249000</v>
+        <v>284600</v>
       </c>
       <c r="G83" s="3">
-        <v>273600</v>
+        <v>257700</v>
       </c>
       <c r="H83" s="3">
-        <v>256400</v>
+        <v>283200</v>
       </c>
       <c r="I83" s="3">
-        <v>243200</v>
+        <v>265400</v>
       </c>
       <c r="J83" s="3">
+        <v>251700</v>
+      </c>
+      <c r="K83" s="3">
         <v>236400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>267000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1143000</v>
+        <v>2286900</v>
       </c>
       <c r="E89" s="3">
-        <v>412000</v>
+        <v>1183000</v>
       </c>
       <c r="F89" s="3">
-        <v>97200</v>
+        <v>426400</v>
       </c>
       <c r="G89" s="3">
-        <v>2212400</v>
+        <v>100600</v>
       </c>
       <c r="H89" s="3">
-        <v>1197000</v>
+        <v>2289800</v>
       </c>
       <c r="I89" s="3">
-        <v>344300</v>
+        <v>1238900</v>
       </c>
       <c r="J89" s="3">
+        <v>356400</v>
+      </c>
+      <c r="K89" s="3">
         <v>530700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1642600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1385400</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3290,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-347200</v>
+        <v>-394100</v>
       </c>
       <c r="E91" s="3">
-        <v>-328000</v>
+        <v>-359400</v>
       </c>
       <c r="F91" s="3">
-        <v>-166200</v>
+        <v>-339500</v>
       </c>
       <c r="G91" s="3">
-        <v>-563200</v>
+        <v>-172000</v>
       </c>
       <c r="H91" s="3">
-        <v>-318000</v>
+        <v>-582900</v>
       </c>
       <c r="I91" s="3">
-        <v>-306800</v>
+        <v>-329100</v>
       </c>
       <c r="J91" s="3">
+        <v>-317500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-248300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-272900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-224000</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-308500</v>
+        <v>-212200</v>
       </c>
       <c r="E94" s="3">
-        <v>-365300</v>
+        <v>-319300</v>
       </c>
       <c r="F94" s="3">
-        <v>-57500</v>
+        <v>-378000</v>
       </c>
       <c r="G94" s="3">
-        <v>-501400</v>
+        <v>-59500</v>
       </c>
       <c r="H94" s="3">
-        <v>-463400</v>
+        <v>-519000</v>
       </c>
       <c r="I94" s="3">
-        <v>-160000</v>
+        <v>-479600</v>
       </c>
       <c r="J94" s="3">
+        <v>-165600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-322300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-322900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-521300</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3445,44 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-22000</v>
+        <v>-2315800</v>
       </c>
       <c r="E96" s="3">
-        <v>-26700</v>
+        <v>-22800</v>
       </c>
       <c r="F96" s="3">
-        <v>-4100</v>
+        <v>-27700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1799400</v>
+        <v>-4300</v>
       </c>
       <c r="H96" s="3">
-        <v>-4600</v>
+        <v>-1862300</v>
       </c>
       <c r="I96" s="3">
-        <v>-43400</v>
+        <v>-4800</v>
       </c>
       <c r="J96" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-232200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1305100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3583,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-173300</v>
+        <v>-2455300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2100</v>
+        <v>-179400</v>
       </c>
       <c r="F100" s="3">
-        <v>-508800</v>
+        <v>-2200</v>
       </c>
       <c r="G100" s="3">
-        <v>-1969000</v>
+        <v>-526600</v>
       </c>
       <c r="H100" s="3">
-        <v>29000</v>
+        <v>-2037800</v>
       </c>
       <c r="I100" s="3">
-        <v>-728700</v>
+        <v>30000</v>
       </c>
       <c r="J100" s="3">
+        <v>-754200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-332600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1874600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-168600</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24200</v>
+        <v>-88400</v>
       </c>
       <c r="E101" s="3">
-        <v>107700</v>
+        <v>25000</v>
       </c>
       <c r="F101" s="3">
-        <v>-242000</v>
+        <v>111500</v>
       </c>
       <c r="G101" s="3">
-        <v>43300</v>
+        <v>-250500</v>
       </c>
       <c r="H101" s="3">
-        <v>92200</v>
+        <v>44800</v>
       </c>
       <c r="I101" s="3">
-        <v>-224700</v>
+        <v>95400</v>
       </c>
       <c r="J101" s="3">
+        <v>-232600</v>
+      </c>
+      <c r="K101" s="3">
         <v>160800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-206600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>685300</v>
+        <v>-468900</v>
       </c>
       <c r="E102" s="3">
-        <v>152300</v>
+        <v>709300</v>
       </c>
       <c r="F102" s="3">
-        <v>-711100</v>
+        <v>157700</v>
       </c>
       <c r="G102" s="3">
-        <v>-214700</v>
+        <v>-735900</v>
       </c>
       <c r="H102" s="3">
-        <v>854900</v>
+        <v>-222200</v>
       </c>
       <c r="I102" s="3">
-        <v>-769100</v>
+        <v>884800</v>
       </c>
       <c r="J102" s="3">
+        <v>-796000</v>
+      </c>
+      <c r="K102" s="3">
         <v>36600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-761500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>828500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>ABEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,180 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4394000</v>
+        <v>4135100</v>
       </c>
       <c r="E8" s="3">
-        <v>3986400</v>
+        <v>4570400</v>
       </c>
       <c r="F8" s="3">
-        <v>3483200</v>
+        <v>4146300</v>
       </c>
       <c r="G8" s="3">
-        <v>3570400</v>
+        <v>3623000</v>
       </c>
       <c r="H8" s="3">
-        <v>4262000</v>
+        <v>3713700</v>
       </c>
       <c r="I8" s="3">
-        <v>3580700</v>
+        <v>4433000</v>
       </c>
       <c r="J8" s="3">
+        <v>3724400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3042100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3113100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3631500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3053800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2127100</v>
+        <v>2040500</v>
       </c>
       <c r="E9" s="3">
-        <v>2061800</v>
+        <v>2212400</v>
       </c>
       <c r="F9" s="3">
-        <v>1815100</v>
+        <v>2144500</v>
       </c>
       <c r="G9" s="3">
-        <v>1822900</v>
+        <v>1888000</v>
       </c>
       <c r="H9" s="3">
-        <v>2032400</v>
+        <v>1896100</v>
       </c>
       <c r="I9" s="3">
-        <v>1791700</v>
+        <v>2113900</v>
       </c>
       <c r="J9" s="3">
+        <v>1863600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1542300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1486500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1604300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1452700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2267000</v>
+        <v>2094600</v>
       </c>
       <c r="E10" s="3">
-        <v>1924600</v>
+        <v>2357900</v>
       </c>
       <c r="F10" s="3">
-        <v>1668100</v>
+        <v>2001800</v>
       </c>
       <c r="G10" s="3">
-        <v>1747500</v>
+        <v>1735000</v>
       </c>
       <c r="H10" s="3">
-        <v>2229600</v>
+        <v>1817600</v>
       </c>
       <c r="I10" s="3">
-        <v>1789100</v>
+        <v>2319100</v>
       </c>
       <c r="J10" s="3">
+        <v>1860800</v>
+      </c>
+      <c r="K10" s="3">
         <v>1499800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1626600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2027200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1601100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,43 +926,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-38200</v>
+        <v>-52800</v>
       </c>
       <c r="E14" s="3">
-        <v>-104400</v>
+        <v>-39700</v>
       </c>
       <c r="F14" s="3">
-        <v>-81300</v>
+        <v>-108600</v>
       </c>
       <c r="G14" s="3">
-        <v>-58800</v>
+        <v>-84600</v>
       </c>
       <c r="H14" s="3">
-        <v>-20100</v>
+        <v>-61200</v>
       </c>
       <c r="I14" s="3">
-        <v>-33000</v>
+        <v>-20900</v>
       </c>
       <c r="J14" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-12800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-33700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-9500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3296200</v>
+        <v>3094800</v>
       </c>
       <c r="E17" s="3">
-        <v>3093000</v>
+        <v>3428500</v>
       </c>
       <c r="F17" s="3">
-        <v>2614700</v>
+        <v>3217100</v>
       </c>
       <c r="G17" s="3">
-        <v>2700300</v>
+        <v>2719600</v>
       </c>
       <c r="H17" s="3">
-        <v>3225900</v>
+        <v>2808700</v>
       </c>
       <c r="I17" s="3">
-        <v>2757900</v>
+        <v>3355300</v>
       </c>
       <c r="J17" s="3">
+        <v>2868600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2258700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2321500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2141800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2335700</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1097800</v>
+        <v>1040300</v>
       </c>
       <c r="E18" s="3">
-        <v>893400</v>
+        <v>1141900</v>
       </c>
       <c r="F18" s="3">
-        <v>868500</v>
+        <v>929200</v>
       </c>
       <c r="G18" s="3">
-        <v>870100</v>
+        <v>903300</v>
       </c>
       <c r="H18" s="3">
-        <v>1036100</v>
+        <v>905000</v>
       </c>
       <c r="I18" s="3">
-        <v>822800</v>
+        <v>1077700</v>
       </c>
       <c r="J18" s="3">
+        <v>855800</v>
+      </c>
+      <c r="K18" s="3">
         <v>783500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>791700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1489700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>718100</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,183 +1109,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-128400</v>
+        <v>-135100</v>
       </c>
       <c r="E20" s="3">
-        <v>-216500</v>
+        <v>-133500</v>
       </c>
       <c r="F20" s="3">
-        <v>-74900</v>
+        <v>-225200</v>
       </c>
       <c r="G20" s="3">
-        <v>-102600</v>
+        <v>-77900</v>
       </c>
       <c r="H20" s="3">
-        <v>-155700</v>
+        <v>-106800</v>
       </c>
       <c r="I20" s="3">
-        <v>-150200</v>
+        <v>-162000</v>
       </c>
       <c r="J20" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-183600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>242800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-136800</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1285500</v>
+        <v>1212700</v>
       </c>
       <c r="E21" s="3">
-        <v>971800</v>
+        <v>1337100</v>
       </c>
       <c r="F21" s="3">
-        <v>1078100</v>
+        <v>1010800</v>
       </c>
       <c r="G21" s="3">
-        <v>1025100</v>
+        <v>1121400</v>
       </c>
       <c r="H21" s="3">
-        <v>1163500</v>
+        <v>1066300</v>
       </c>
       <c r="I21" s="3">
-        <v>938000</v>
+        <v>1210200</v>
       </c>
       <c r="J21" s="3">
+        <v>975600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1010900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>844400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1999500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>841000</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>131500</v>
+        <v>124200</v>
       </c>
       <c r="E22" s="3">
-        <v>133900</v>
+        <v>136800</v>
       </c>
       <c r="F22" s="3">
-        <v>108400</v>
+        <v>139300</v>
       </c>
       <c r="G22" s="3">
-        <v>77000</v>
+        <v>112700</v>
       </c>
       <c r="H22" s="3">
-        <v>85700</v>
+        <v>80100</v>
       </c>
       <c r="I22" s="3">
-        <v>68000</v>
+        <v>89100</v>
       </c>
       <c r="J22" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K22" s="3">
         <v>58800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>62600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>76100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>837900</v>
+        <v>781000</v>
       </c>
       <c r="E23" s="3">
-        <v>542900</v>
+        <v>871600</v>
       </c>
       <c r="F23" s="3">
-        <v>685200</v>
+        <v>564700</v>
       </c>
       <c r="G23" s="3">
-        <v>690400</v>
+        <v>712700</v>
       </c>
       <c r="H23" s="3">
-        <v>794700</v>
+        <v>718100</v>
       </c>
       <c r="I23" s="3">
-        <v>604600</v>
+        <v>826600</v>
       </c>
       <c r="J23" s="3">
+        <v>628900</v>
+      </c>
+      <c r="K23" s="3">
         <v>700400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>545400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1656500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>475800</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-146400</v>
+        <v>11800</v>
       </c>
       <c r="E24" s="3">
-        <v>-79600</v>
+        <v>-152200</v>
       </c>
       <c r="F24" s="3">
-        <v>91900</v>
+        <v>-82800</v>
       </c>
       <c r="G24" s="3">
-        <v>7100</v>
+        <v>95600</v>
       </c>
       <c r="H24" s="3">
-        <v>69200</v>
+        <v>7400</v>
       </c>
       <c r="I24" s="3">
-        <v>-114300</v>
+        <v>71900</v>
       </c>
       <c r="J24" s="3">
+        <v>-118900</v>
+      </c>
+      <c r="K24" s="3">
         <v>133100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>308000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>984300</v>
+        <v>769200</v>
       </c>
       <c r="E26" s="3">
-        <v>622500</v>
+        <v>1023800</v>
       </c>
       <c r="F26" s="3">
-        <v>593300</v>
+        <v>647500</v>
       </c>
       <c r="G26" s="3">
-        <v>683300</v>
+        <v>617100</v>
       </c>
       <c r="H26" s="3">
-        <v>725500</v>
+        <v>710700</v>
       </c>
       <c r="I26" s="3">
-        <v>718900</v>
+        <v>754600</v>
       </c>
       <c r="J26" s="3">
+        <v>747700</v>
+      </c>
+      <c r="K26" s="3">
         <v>567300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>511400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1348400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>961700</v>
+        <v>745100</v>
       </c>
       <c r="E27" s="3">
-        <v>601900</v>
+        <v>1000300</v>
       </c>
       <c r="F27" s="3">
-        <v>575000</v>
+        <v>626100</v>
       </c>
       <c r="G27" s="3">
-        <v>660800</v>
+        <v>598100</v>
       </c>
       <c r="H27" s="3">
-        <v>698500</v>
+        <v>687300</v>
       </c>
       <c r="I27" s="3">
-        <v>687900</v>
+        <v>726500</v>
       </c>
       <c r="J27" s="3">
+        <v>715500</v>
+      </c>
+      <c r="K27" s="3">
         <v>558800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>491200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1328000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>128400</v>
+        <v>135100</v>
       </c>
       <c r="E32" s="3">
-        <v>216500</v>
+        <v>133500</v>
       </c>
       <c r="F32" s="3">
-        <v>74900</v>
+        <v>225200</v>
       </c>
       <c r="G32" s="3">
-        <v>102600</v>
+        <v>77900</v>
       </c>
       <c r="H32" s="3">
-        <v>155700</v>
+        <v>106800</v>
       </c>
       <c r="I32" s="3">
-        <v>150200</v>
+        <v>162000</v>
       </c>
       <c r="J32" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K32" s="3">
         <v>24300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>183600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-242800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>961700</v>
+        <v>745100</v>
       </c>
       <c r="E33" s="3">
-        <v>601900</v>
+        <v>1000300</v>
       </c>
       <c r="F33" s="3">
-        <v>575000</v>
+        <v>626100</v>
       </c>
       <c r="G33" s="3">
-        <v>660800</v>
+        <v>598100</v>
       </c>
       <c r="H33" s="3">
-        <v>698500</v>
+        <v>687300</v>
       </c>
       <c r="I33" s="3">
-        <v>687900</v>
+        <v>726500</v>
       </c>
       <c r="J33" s="3">
+        <v>715500</v>
+      </c>
+      <c r="K33" s="3">
         <v>558800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>491200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1328000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>961700</v>
+        <v>745100</v>
       </c>
       <c r="E35" s="3">
-        <v>601900</v>
+        <v>1000300</v>
       </c>
       <c r="F35" s="3">
-        <v>575000</v>
+        <v>626100</v>
       </c>
       <c r="G35" s="3">
-        <v>660800</v>
+        <v>598100</v>
       </c>
       <c r="H35" s="3">
-        <v>698500</v>
+        <v>687300</v>
       </c>
       <c r="I35" s="3">
-        <v>687900</v>
+        <v>726500</v>
       </c>
       <c r="J35" s="3">
+        <v>715500</v>
+      </c>
+      <c r="K35" s="3">
         <v>558800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>491200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1328000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,323 +1792,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2890200</v>
+        <v>2459900</v>
       </c>
       <c r="E41" s="3">
-        <v>3429700</v>
+        <v>3006200</v>
       </c>
       <c r="F41" s="3">
-        <v>2735800</v>
+        <v>3567300</v>
       </c>
       <c r="G41" s="3">
-        <v>2495500</v>
+        <v>2845600</v>
       </c>
       <c r="H41" s="3">
-        <v>3219600</v>
+        <v>2595600</v>
       </c>
       <c r="I41" s="3">
-        <v>3476900</v>
+        <v>3348800</v>
       </c>
       <c r="J41" s="3">
+        <v>3616400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2569300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3234100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3344600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4239000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>88000</v>
+        <v>73600</v>
       </c>
       <c r="E42" s="3">
-        <v>260900</v>
+        <v>91500</v>
       </c>
       <c r="F42" s="3">
-        <v>297400</v>
+        <v>271300</v>
       </c>
       <c r="G42" s="3">
-        <v>260600</v>
+        <v>309300</v>
       </c>
       <c r="H42" s="3">
-        <v>370700</v>
+        <v>271000</v>
       </c>
       <c r="I42" s="3">
-        <v>395900</v>
+        <v>385600</v>
       </c>
       <c r="J42" s="3">
+        <v>411800</v>
+      </c>
+      <c r="K42" s="3">
         <v>241200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>383500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>332700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>282400</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1588300</v>
+        <v>1630600</v>
       </c>
       <c r="E43" s="3">
-        <v>1567300</v>
+        <v>1652000</v>
       </c>
       <c r="F43" s="3">
-        <v>1550100</v>
+        <v>1630200</v>
       </c>
       <c r="G43" s="3">
-        <v>1350300</v>
+        <v>1612400</v>
       </c>
       <c r="H43" s="3">
-        <v>1433700</v>
+        <v>1404500</v>
       </c>
       <c r="I43" s="3">
-        <v>1266100</v>
+        <v>1491200</v>
       </c>
       <c r="J43" s="3">
+        <v>1316900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1271600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1190600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1485400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1493200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2502300</v>
+        <v>2624400</v>
       </c>
       <c r="E44" s="3">
-        <v>2419400</v>
+        <v>2602700</v>
       </c>
       <c r="F44" s="3">
-        <v>2437400</v>
+        <v>2516500</v>
       </c>
       <c r="G44" s="3">
-        <v>2212500</v>
+        <v>2535200</v>
       </c>
       <c r="H44" s="3">
-        <v>2130000</v>
+        <v>2301300</v>
       </c>
       <c r="I44" s="3">
-        <v>1841700</v>
+        <v>2215500</v>
       </c>
       <c r="J44" s="3">
+        <v>1915600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1855600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1814400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1488500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1436800</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>253700</v>
+        <v>336800</v>
       </c>
       <c r="E45" s="3">
-        <v>369300</v>
+        <v>263900</v>
       </c>
       <c r="F45" s="3">
-        <v>383400</v>
+        <v>384200</v>
       </c>
       <c r="G45" s="3">
-        <v>357400</v>
+        <v>398800</v>
       </c>
       <c r="H45" s="3">
-        <v>325300</v>
+        <v>371800</v>
       </c>
       <c r="I45" s="3">
-        <v>415600</v>
+        <v>338400</v>
       </c>
       <c r="J45" s="3">
+        <v>432300</v>
+      </c>
+      <c r="K45" s="3">
         <v>395000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>311000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>265400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7322400</v>
+        <v>7125300</v>
       </c>
       <c r="E46" s="3">
-        <v>8046700</v>
+        <v>7616300</v>
       </c>
       <c r="F46" s="3">
-        <v>7404100</v>
+        <v>8369600</v>
       </c>
       <c r="G46" s="3">
-        <v>6676300</v>
+        <v>7701200</v>
       </c>
       <c r="H46" s="3">
-        <v>7479400</v>
+        <v>6944200</v>
       </c>
       <c r="I46" s="3">
-        <v>7396100</v>
+        <v>7779500</v>
       </c>
       <c r="J46" s="3">
+        <v>7692900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6332800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6933500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6916500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7651600</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2404900</v>
+        <v>2464600</v>
       </c>
       <c r="E47" s="3">
-        <v>2108100</v>
+        <v>2501400</v>
       </c>
       <c r="F47" s="3">
-        <v>2196200</v>
+        <v>2192700</v>
       </c>
       <c r="G47" s="3">
-        <v>2495000</v>
+        <v>2284300</v>
       </c>
       <c r="H47" s="3">
-        <v>2597500</v>
+        <v>2595100</v>
       </c>
       <c r="I47" s="3">
-        <v>2402500</v>
+        <v>2701700</v>
       </c>
       <c r="J47" s="3">
+        <v>2498900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2414200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2094900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2205400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1048400</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5819700</v>
+        <v>5999800</v>
       </c>
       <c r="E48" s="3">
-        <v>5794700</v>
+        <v>6053200</v>
       </c>
       <c r="F48" s="3">
-        <v>5690200</v>
+        <v>6027300</v>
       </c>
       <c r="G48" s="3">
-        <v>5323700</v>
+        <v>5918500</v>
       </c>
       <c r="H48" s="3">
-        <v>5658700</v>
+        <v>5537400</v>
       </c>
       <c r="I48" s="3">
-        <v>5272900</v>
+        <v>5885800</v>
       </c>
       <c r="J48" s="3">
+        <v>5484500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4976700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4991000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4847200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4977800</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9645900</v>
+        <v>9956200</v>
       </c>
       <c r="E49" s="3">
-        <v>9838000</v>
+        <v>10033000</v>
       </c>
       <c r="F49" s="3">
-        <v>9658500</v>
+        <v>10232800</v>
       </c>
       <c r="G49" s="3">
-        <v>9086200</v>
+        <v>10046000</v>
       </c>
       <c r="H49" s="3">
-        <v>9894500</v>
+        <v>9450800</v>
       </c>
       <c r="I49" s="3">
-        <v>9659300</v>
+        <v>10291600</v>
       </c>
       <c r="J49" s="3">
+        <v>10046900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9194900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9536000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9316100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9662700</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,43 +2208,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1519800</v>
+        <v>1737200</v>
       </c>
       <c r="E52" s="3">
-        <v>1720300</v>
+        <v>1580800</v>
       </c>
       <c r="F52" s="3">
-        <v>1507300</v>
+        <v>1789300</v>
       </c>
       <c r="G52" s="3">
-        <v>1087200</v>
+        <v>1567800</v>
       </c>
       <c r="H52" s="3">
-        <v>1207500</v>
+        <v>1130900</v>
       </c>
       <c r="I52" s="3">
-        <v>1435000</v>
+        <v>1255900</v>
       </c>
       <c r="J52" s="3">
+        <v>1492600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1176800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1405800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1215800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1524500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,43 +2284,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26712800</v>
+        <v>27283000</v>
       </c>
       <c r="E54" s="3">
-        <v>27507800</v>
+        <v>27784800</v>
       </c>
       <c r="F54" s="3">
-        <v>26456300</v>
+        <v>28611700</v>
       </c>
       <c r="G54" s="3">
-        <v>24668400</v>
+        <v>27518000</v>
       </c>
       <c r="H54" s="3">
-        <v>26837600</v>
+        <v>25658300</v>
       </c>
       <c r="I54" s="3">
-        <v>26165900</v>
+        <v>27914500</v>
       </c>
       <c r="J54" s="3">
+        <v>27215800</v>
+      </c>
+      <c r="K54" s="3">
         <v>24095300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24961100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24501000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24865000</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,218 +2356,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4549900</v>
+        <v>4152400</v>
       </c>
       <c r="E57" s="3">
-        <v>3937600</v>
+        <v>4732500</v>
       </c>
       <c r="F57" s="3">
-        <v>3846600</v>
+        <v>4095600</v>
       </c>
       <c r="G57" s="3">
-        <v>4036700</v>
+        <v>4000900</v>
       </c>
       <c r="H57" s="3">
-        <v>4621500</v>
+        <v>4198600</v>
       </c>
       <c r="I57" s="3">
-        <v>3558800</v>
+        <v>4807000</v>
       </c>
       <c r="J57" s="3">
+        <v>3701600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3460700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3636500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3558200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2940000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>190300</v>
+        <v>229200</v>
       </c>
       <c r="E58" s="3">
-        <v>147500</v>
+        <v>197900</v>
       </c>
       <c r="F58" s="3">
-        <v>173200</v>
+        <v>153400</v>
       </c>
       <c r="G58" s="3">
-        <v>158000</v>
+        <v>180100</v>
       </c>
       <c r="H58" s="3">
-        <v>164000</v>
+        <v>164300</v>
       </c>
       <c r="I58" s="3">
-        <v>172200</v>
+        <v>170600</v>
       </c>
       <c r="J58" s="3">
+        <v>179100</v>
+      </c>
+      <c r="K58" s="3">
         <v>165500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>486200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>536000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>845100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3109700</v>
+        <v>2794700</v>
       </c>
       <c r="E59" s="3">
-        <v>2688100</v>
+        <v>3234500</v>
       </c>
       <c r="F59" s="3">
-        <v>2543900</v>
+        <v>2796000</v>
       </c>
       <c r="G59" s="3">
-        <v>2229900</v>
+        <v>2646000</v>
       </c>
       <c r="H59" s="3">
-        <v>2740200</v>
+        <v>2319300</v>
       </c>
       <c r="I59" s="3">
-        <v>2292400</v>
+        <v>2850100</v>
       </c>
       <c r="J59" s="3">
+        <v>2384400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1948700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1841800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2457400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2139800</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7849900</v>
+        <v>7176400</v>
       </c>
       <c r="E60" s="3">
-        <v>6773100</v>
+        <v>8164900</v>
       </c>
       <c r="F60" s="3">
-        <v>6563600</v>
+        <v>7044900</v>
       </c>
       <c r="G60" s="3">
-        <v>6424500</v>
+        <v>6827000</v>
       </c>
       <c r="H60" s="3">
-        <v>7525700</v>
+        <v>6682300</v>
       </c>
       <c r="I60" s="3">
-        <v>6023300</v>
+        <v>7827700</v>
       </c>
       <c r="J60" s="3">
+        <v>6265000</v>
+      </c>
+      <c r="K60" s="3">
         <v>5574900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5964600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6551600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5924900</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>539900</v>
+        <v>534000</v>
       </c>
       <c r="E61" s="3">
-        <v>429700</v>
+        <v>561500</v>
       </c>
       <c r="F61" s="3">
-        <v>445700</v>
+        <v>446900</v>
       </c>
       <c r="G61" s="3">
-        <v>420300</v>
+        <v>463600</v>
       </c>
       <c r="H61" s="3">
-        <v>436300</v>
+        <v>437100</v>
       </c>
       <c r="I61" s="3">
-        <v>414100</v>
+        <v>453800</v>
       </c>
       <c r="J61" s="3">
+        <v>430700</v>
+      </c>
+      <c r="K61" s="3">
         <v>413600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>454300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>401900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>496500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2188300</v>
+        <v>2164300</v>
       </c>
       <c r="E62" s="3">
-        <v>2577900</v>
+        <v>2276100</v>
       </c>
       <c r="F62" s="3">
-        <v>2487600</v>
+        <v>2681400</v>
       </c>
       <c r="G62" s="3">
-        <v>2295300</v>
+        <v>2587400</v>
       </c>
       <c r="H62" s="3">
-        <v>2607200</v>
+        <v>2387400</v>
       </c>
       <c r="I62" s="3">
-        <v>2657100</v>
+        <v>2711900</v>
       </c>
       <c r="J62" s="3">
+        <v>2763700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2596800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2895900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2840400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2871000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,43 +2696,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10843800</v>
+        <v>10164100</v>
       </c>
       <c r="E66" s="3">
-        <v>10046700</v>
+        <v>11278900</v>
       </c>
       <c r="F66" s="3">
-        <v>9753200</v>
+        <v>10449800</v>
       </c>
       <c r="G66" s="3">
-        <v>9386600</v>
+        <v>10144600</v>
       </c>
       <c r="H66" s="3">
-        <v>10835400</v>
+        <v>9763200</v>
       </c>
       <c r="I66" s="3">
-        <v>9364300</v>
+        <v>11270200</v>
       </c>
       <c r="J66" s="3">
+        <v>9740100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8819900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9611500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10055300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9599200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,43 +2902,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7541800</v>
+        <v>8857000</v>
       </c>
       <c r="E72" s="3">
-        <v>8800000</v>
+        <v>7844500</v>
       </c>
       <c r="F72" s="3">
-        <v>7976100</v>
+        <v>9153100</v>
       </c>
       <c r="G72" s="3">
-        <v>7192100</v>
+        <v>8296100</v>
       </c>
       <c r="H72" s="3">
-        <v>6398700</v>
+        <v>7480700</v>
       </c>
       <c r="I72" s="3">
-        <v>7414400</v>
+        <v>6655500</v>
       </c>
       <c r="J72" s="3">
+        <v>7711900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6612500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5748100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5377600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5479700</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,43 +3054,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15869100</v>
+        <v>17118900</v>
       </c>
       <c r="E76" s="3">
-        <v>17461200</v>
+        <v>16505900</v>
       </c>
       <c r="F76" s="3">
-        <v>16703100</v>
+        <v>18161900</v>
       </c>
       <c r="G76" s="3">
-        <v>15281900</v>
+        <v>17373400</v>
       </c>
       <c r="H76" s="3">
-        <v>16002200</v>
+        <v>15895100</v>
       </c>
       <c r="I76" s="3">
-        <v>16801500</v>
+        <v>16644300</v>
       </c>
       <c r="J76" s="3">
+        <v>17475700</v>
+      </c>
+      <c r="K76" s="3">
         <v>15275400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15349600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14445700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15265800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>961700</v>
+        <v>745100</v>
       </c>
       <c r="E81" s="3">
-        <v>601900</v>
+        <v>1000300</v>
       </c>
       <c r="F81" s="3">
-        <v>575000</v>
+        <v>626100</v>
       </c>
       <c r="G81" s="3">
-        <v>660800</v>
+        <v>598100</v>
       </c>
       <c r="H81" s="3">
-        <v>698500</v>
+        <v>687300</v>
       </c>
       <c r="I81" s="3">
-        <v>687900</v>
+        <v>726500</v>
       </c>
       <c r="J81" s="3">
+        <v>715500</v>
+      </c>
+      <c r="K81" s="3">
         <v>558800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>491200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1328000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,43 +3229,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>316100</v>
+        <v>307500</v>
       </c>
       <c r="E83" s="3">
-        <v>295000</v>
+        <v>328700</v>
       </c>
       <c r="F83" s="3">
-        <v>284600</v>
+        <v>306800</v>
       </c>
       <c r="G83" s="3">
-        <v>257700</v>
+        <v>296000</v>
       </c>
       <c r="H83" s="3">
-        <v>283200</v>
+        <v>268100</v>
       </c>
       <c r="I83" s="3">
-        <v>265400</v>
+        <v>294500</v>
       </c>
       <c r="J83" s="3">
+        <v>276000</v>
+      </c>
+      <c r="K83" s="3">
         <v>251700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>236400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>267000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2286900</v>
+        <v>-116100</v>
       </c>
       <c r="E89" s="3">
-        <v>1183000</v>
+        <v>2378700</v>
       </c>
       <c r="F89" s="3">
-        <v>426400</v>
+        <v>1230400</v>
       </c>
       <c r="G89" s="3">
-        <v>100600</v>
+        <v>443500</v>
       </c>
       <c r="H89" s="3">
-        <v>2289800</v>
+        <v>104700</v>
       </c>
       <c r="I89" s="3">
-        <v>1238900</v>
+        <v>2381700</v>
       </c>
       <c r="J89" s="3">
+        <v>1288600</v>
+      </c>
+      <c r="K89" s="3">
         <v>356400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>530700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1642600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1385400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,43 +3511,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-394100</v>
+        <v>-1153000</v>
       </c>
       <c r="E91" s="3">
-        <v>-359400</v>
+        <v>-2035500</v>
       </c>
       <c r="F91" s="3">
-        <v>-339500</v>
+        <v>-1855900</v>
       </c>
       <c r="G91" s="3">
-        <v>-172000</v>
+        <v>-1753100</v>
       </c>
       <c r="H91" s="3">
-        <v>-582900</v>
+        <v>-888500</v>
       </c>
       <c r="I91" s="3">
-        <v>-329100</v>
+        <v>-3010300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1699700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-317500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-248300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-272900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-224000</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,43 +3623,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-212200</v>
+        <v>-217700</v>
       </c>
       <c r="E94" s="3">
-        <v>-319300</v>
+        <v>-220700</v>
       </c>
       <c r="F94" s="3">
-        <v>-378000</v>
+        <v>-332100</v>
       </c>
       <c r="G94" s="3">
-        <v>-59500</v>
+        <v>-393200</v>
       </c>
       <c r="H94" s="3">
-        <v>-519000</v>
+        <v>-61900</v>
       </c>
       <c r="I94" s="3">
-        <v>-479600</v>
+        <v>-539800</v>
       </c>
       <c r="J94" s="3">
+        <v>-498800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-165600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-322300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-322900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-521300</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,43 +3679,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2315800</v>
+        <v>-7700</v>
       </c>
       <c r="E96" s="3">
-        <v>-22800</v>
+        <v>-2408700</v>
       </c>
       <c r="F96" s="3">
-        <v>-27700</v>
+        <v>-23700</v>
       </c>
       <c r="G96" s="3">
-        <v>-4300</v>
+        <v>-28800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1862300</v>
+        <v>-4400</v>
       </c>
       <c r="I96" s="3">
-        <v>-4800</v>
+        <v>-1937000</v>
       </c>
       <c r="J96" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-44900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-232200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1305100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,109 +3829,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2455300</v>
+        <v>-204700</v>
       </c>
       <c r="E100" s="3">
-        <v>-179400</v>
+        <v>-2553800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2200</v>
+        <v>-186600</v>
       </c>
       <c r="G100" s="3">
-        <v>-526600</v>
+        <v>-2300</v>
       </c>
       <c r="H100" s="3">
-        <v>-2037800</v>
+        <v>-547700</v>
       </c>
       <c r="I100" s="3">
-        <v>30000</v>
+        <v>-2119600</v>
       </c>
       <c r="J100" s="3">
+        <v>31200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-754200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-332600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1874600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-168600</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-88400</v>
+        <v>-24500</v>
       </c>
       <c r="E101" s="3">
-        <v>25000</v>
+        <v>-92000</v>
       </c>
       <c r="F101" s="3">
-        <v>111500</v>
+        <v>26000</v>
       </c>
       <c r="G101" s="3">
-        <v>-250500</v>
+        <v>116000</v>
       </c>
       <c r="H101" s="3">
-        <v>44800</v>
+        <v>-260500</v>
       </c>
       <c r="I101" s="3">
-        <v>95400</v>
+        <v>46600</v>
       </c>
       <c r="J101" s="3">
+        <v>99200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-232600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>160800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-206600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-468900</v>
+        <v>-562900</v>
       </c>
       <c r="E102" s="3">
-        <v>709300</v>
+        <v>-487700</v>
       </c>
       <c r="F102" s="3">
-        <v>157700</v>
+        <v>737800</v>
       </c>
       <c r="G102" s="3">
-        <v>-735900</v>
+        <v>164000</v>
       </c>
       <c r="H102" s="3">
-        <v>-222200</v>
+        <v>-765500</v>
       </c>
       <c r="I102" s="3">
-        <v>884800</v>
+        <v>-231100</v>
       </c>
       <c r="J102" s="3">
+        <v>920300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-796000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>36600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-761500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>828500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>ABEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,193 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4135100</v>
+        <v>3814400</v>
       </c>
       <c r="E8" s="3">
-        <v>4570400</v>
+        <v>4144100</v>
       </c>
       <c r="F8" s="3">
-        <v>4146300</v>
+        <v>4580400</v>
       </c>
       <c r="G8" s="3">
-        <v>3623000</v>
+        <v>4155400</v>
       </c>
       <c r="H8" s="3">
-        <v>3713700</v>
+        <v>3630900</v>
       </c>
       <c r="I8" s="3">
-        <v>4433000</v>
+        <v>3721800</v>
       </c>
       <c r="J8" s="3">
+        <v>4442700</v>
+      </c>
+      <c r="K8" s="3">
         <v>3724400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3042100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3113100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3631500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3053800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2040500</v>
+        <v>1944900</v>
       </c>
       <c r="E9" s="3">
-        <v>2212400</v>
+        <v>2045000</v>
       </c>
       <c r="F9" s="3">
-        <v>2144500</v>
+        <v>2217300</v>
       </c>
       <c r="G9" s="3">
-        <v>1888000</v>
+        <v>2149200</v>
       </c>
       <c r="H9" s="3">
-        <v>1896100</v>
+        <v>1892100</v>
       </c>
       <c r="I9" s="3">
-        <v>2113900</v>
+        <v>1900200</v>
       </c>
       <c r="J9" s="3">
+        <v>2118500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1863600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1542300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1486500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1604300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1452700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2094600</v>
+        <v>1869500</v>
       </c>
       <c r="E10" s="3">
-        <v>2357900</v>
+        <v>2099100</v>
       </c>
       <c r="F10" s="3">
-        <v>2001800</v>
+        <v>2363100</v>
       </c>
       <c r="G10" s="3">
-        <v>1735000</v>
+        <v>2006200</v>
       </c>
       <c r="H10" s="3">
-        <v>1817600</v>
+        <v>1738800</v>
       </c>
       <c r="I10" s="3">
-        <v>2319100</v>
+        <v>1821500</v>
       </c>
       <c r="J10" s="3">
+        <v>2324100</v>
+      </c>
+      <c r="K10" s="3">
         <v>1860800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1499800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1626600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2027200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1601100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,46 +946,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-52800</v>
+        <v>4200</v>
       </c>
       <c r="E14" s="3">
-        <v>-39700</v>
+        <v>-52900</v>
       </c>
       <c r="F14" s="3">
-        <v>-108600</v>
+        <v>-39800</v>
       </c>
       <c r="G14" s="3">
-        <v>-84600</v>
+        <v>-108800</v>
       </c>
       <c r="H14" s="3">
-        <v>-61200</v>
+        <v>-84800</v>
       </c>
       <c r="I14" s="3">
-        <v>-20900</v>
+        <v>-61300</v>
       </c>
       <c r="J14" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-34300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-12800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-33700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-9500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1044,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3094800</v>
+        <v>3098200</v>
       </c>
       <c r="E17" s="3">
-        <v>3428500</v>
+        <v>3101500</v>
       </c>
       <c r="F17" s="3">
-        <v>3217100</v>
+        <v>3436000</v>
       </c>
       <c r="G17" s="3">
-        <v>2719600</v>
+        <v>3224200</v>
       </c>
       <c r="H17" s="3">
-        <v>2808700</v>
+        <v>2725600</v>
       </c>
       <c r="I17" s="3">
-        <v>3355300</v>
+        <v>2814800</v>
       </c>
       <c r="J17" s="3">
+        <v>3362600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2868600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2258700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2321500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2141800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2335700</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1040300</v>
+        <v>716200</v>
       </c>
       <c r="E18" s="3">
-        <v>1141900</v>
+        <v>1042600</v>
       </c>
       <c r="F18" s="3">
-        <v>929200</v>
+        <v>1144400</v>
       </c>
       <c r="G18" s="3">
-        <v>903300</v>
+        <v>931200</v>
       </c>
       <c r="H18" s="3">
-        <v>905000</v>
+        <v>905300</v>
       </c>
       <c r="I18" s="3">
-        <v>1077700</v>
+        <v>907000</v>
       </c>
       <c r="J18" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="K18" s="3">
         <v>855800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>783500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>791700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1489700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>718100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,198 +1143,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-135100</v>
+        <v>-104300</v>
       </c>
       <c r="E20" s="3">
-        <v>-133500</v>
+        <v>-135400</v>
       </c>
       <c r="F20" s="3">
-        <v>-225200</v>
+        <v>-133800</v>
       </c>
       <c r="G20" s="3">
-        <v>-77900</v>
+        <v>-225700</v>
       </c>
       <c r="H20" s="3">
-        <v>-106800</v>
+        <v>-78100</v>
       </c>
       <c r="I20" s="3">
-        <v>-162000</v>
+        <v>-107000</v>
       </c>
       <c r="J20" s="3">
+        <v>-162300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-156200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-183600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>242800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-136800</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1212700</v>
+        <v>955800</v>
       </c>
       <c r="E21" s="3">
-        <v>1337100</v>
+        <v>1215300</v>
       </c>
       <c r="F21" s="3">
-        <v>1010800</v>
+        <v>1340000</v>
       </c>
       <c r="G21" s="3">
-        <v>1121400</v>
+        <v>1013000</v>
       </c>
       <c r="H21" s="3">
-        <v>1066300</v>
+        <v>1123800</v>
       </c>
       <c r="I21" s="3">
-        <v>1210200</v>
+        <v>1068600</v>
       </c>
       <c r="J21" s="3">
+        <v>1212900</v>
+      </c>
+      <c r="K21" s="3">
         <v>975600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1010900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>844400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1999500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>841000</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>124200</v>
+        <v>133100</v>
       </c>
       <c r="E22" s="3">
-        <v>136800</v>
+        <v>124500</v>
       </c>
       <c r="F22" s="3">
-        <v>139300</v>
+        <v>137100</v>
       </c>
       <c r="G22" s="3">
-        <v>112700</v>
+        <v>139600</v>
       </c>
       <c r="H22" s="3">
-        <v>80100</v>
+        <v>113000</v>
       </c>
       <c r="I22" s="3">
-        <v>89100</v>
+        <v>80300</v>
       </c>
       <c r="J22" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K22" s="3">
         <v>70700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>62600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>76100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>781000</v>
+        <v>478800</v>
       </c>
       <c r="E23" s="3">
-        <v>871600</v>
+        <v>782700</v>
       </c>
       <c r="F23" s="3">
-        <v>564700</v>
+        <v>873500</v>
       </c>
       <c r="G23" s="3">
-        <v>712700</v>
+        <v>565900</v>
       </c>
       <c r="H23" s="3">
-        <v>718100</v>
+        <v>714200</v>
       </c>
       <c r="I23" s="3">
-        <v>826600</v>
+        <v>719700</v>
       </c>
       <c r="J23" s="3">
+        <v>828400</v>
+      </c>
+      <c r="K23" s="3">
         <v>628900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>700400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>545400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1656500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>475800</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="E24" s="3">
         <v>11800</v>
       </c>
-      <c r="E24" s="3">
-        <v>-152200</v>
-      </c>
       <c r="F24" s="3">
-        <v>-82800</v>
+        <v>-152600</v>
       </c>
       <c r="G24" s="3">
-        <v>95600</v>
+        <v>-83000</v>
       </c>
       <c r="H24" s="3">
+        <v>95800</v>
+      </c>
+      <c r="I24" s="3">
         <v>7400</v>
       </c>
-      <c r="I24" s="3">
-        <v>71900</v>
-      </c>
       <c r="J24" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-118900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>133100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>308000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1387,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>769200</v>
+        <v>524300</v>
       </c>
       <c r="E26" s="3">
-        <v>1023800</v>
+        <v>770900</v>
       </c>
       <c r="F26" s="3">
-        <v>647500</v>
+        <v>1026000</v>
       </c>
       <c r="G26" s="3">
-        <v>617100</v>
+        <v>648900</v>
       </c>
       <c r="H26" s="3">
-        <v>710700</v>
+        <v>618400</v>
       </c>
       <c r="I26" s="3">
-        <v>754600</v>
+        <v>712300</v>
       </c>
       <c r="J26" s="3">
+        <v>756300</v>
+      </c>
+      <c r="K26" s="3">
         <v>747700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>567300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>511400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1348400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>745100</v>
+        <v>505200</v>
       </c>
       <c r="E27" s="3">
-        <v>1000300</v>
+        <v>746700</v>
       </c>
       <c r="F27" s="3">
-        <v>626100</v>
+        <v>1002500</v>
       </c>
       <c r="G27" s="3">
-        <v>598100</v>
+        <v>627400</v>
       </c>
       <c r="H27" s="3">
-        <v>687300</v>
+        <v>599400</v>
       </c>
       <c r="I27" s="3">
-        <v>726500</v>
+        <v>688800</v>
       </c>
       <c r="J27" s="3">
+        <v>728100</v>
+      </c>
+      <c r="K27" s="3">
         <v>715500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>558800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>491200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1328000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1633,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>135100</v>
+        <v>104300</v>
       </c>
       <c r="E32" s="3">
-        <v>133500</v>
+        <v>135400</v>
       </c>
       <c r="F32" s="3">
-        <v>225200</v>
+        <v>133800</v>
       </c>
       <c r="G32" s="3">
-        <v>77900</v>
+        <v>225700</v>
       </c>
       <c r="H32" s="3">
-        <v>106800</v>
+        <v>78100</v>
       </c>
       <c r="I32" s="3">
-        <v>162000</v>
+        <v>107000</v>
       </c>
       <c r="J32" s="3">
+        <v>162300</v>
+      </c>
+      <c r="K32" s="3">
         <v>156200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>183600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-242800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>745100</v>
+        <v>505200</v>
       </c>
       <c r="E33" s="3">
-        <v>1000300</v>
+        <v>746700</v>
       </c>
       <c r="F33" s="3">
-        <v>626100</v>
+        <v>1002500</v>
       </c>
       <c r="G33" s="3">
-        <v>598100</v>
+        <v>627400</v>
       </c>
       <c r="H33" s="3">
-        <v>687300</v>
+        <v>599400</v>
       </c>
       <c r="I33" s="3">
-        <v>726500</v>
+        <v>688800</v>
       </c>
       <c r="J33" s="3">
+        <v>728100</v>
+      </c>
+      <c r="K33" s="3">
         <v>715500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>558800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>491200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1328000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1756,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>745100</v>
+        <v>505200</v>
       </c>
       <c r="E35" s="3">
-        <v>1000300</v>
+        <v>746700</v>
       </c>
       <c r="F35" s="3">
-        <v>626100</v>
+        <v>1002500</v>
       </c>
       <c r="G35" s="3">
-        <v>598100</v>
+        <v>627400</v>
       </c>
       <c r="H35" s="3">
-        <v>687300</v>
+        <v>599400</v>
       </c>
       <c r="I35" s="3">
-        <v>726500</v>
+        <v>688800</v>
       </c>
       <c r="J35" s="3">
+        <v>728100</v>
+      </c>
+      <c r="K35" s="3">
         <v>715500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>558800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>491200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1328000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,350 +1879,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2459900</v>
+        <v>2445700</v>
       </c>
       <c r="E41" s="3">
-        <v>3006200</v>
+        <v>2465300</v>
       </c>
       <c r="F41" s="3">
-        <v>3567300</v>
+        <v>3012800</v>
       </c>
       <c r="G41" s="3">
-        <v>2845600</v>
+        <v>3575100</v>
       </c>
       <c r="H41" s="3">
-        <v>2595600</v>
+        <v>2851800</v>
       </c>
       <c r="I41" s="3">
-        <v>3348800</v>
+        <v>2601300</v>
       </c>
       <c r="J41" s="3">
+        <v>3356100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3616400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2569300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3234100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3344600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4239000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>73600</v>
+        <v>63300</v>
       </c>
       <c r="E42" s="3">
-        <v>91500</v>
+        <v>73700</v>
       </c>
       <c r="F42" s="3">
-        <v>271300</v>
+        <v>91700</v>
       </c>
       <c r="G42" s="3">
-        <v>309300</v>
+        <v>271900</v>
       </c>
       <c r="H42" s="3">
-        <v>271000</v>
+        <v>310000</v>
       </c>
       <c r="I42" s="3">
-        <v>385600</v>
+        <v>271600</v>
       </c>
       <c r="J42" s="3">
+        <v>386400</v>
+      </c>
+      <c r="K42" s="3">
         <v>411800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>241200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>383500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>332700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>282400</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1630600</v>
+        <v>1669600</v>
       </c>
       <c r="E43" s="3">
-        <v>1652000</v>
+        <v>1634200</v>
       </c>
       <c r="F43" s="3">
-        <v>1630200</v>
+        <v>1655600</v>
       </c>
       <c r="G43" s="3">
-        <v>1612400</v>
+        <v>1633800</v>
       </c>
       <c r="H43" s="3">
-        <v>1404500</v>
+        <v>1615900</v>
       </c>
       <c r="I43" s="3">
-        <v>1491200</v>
+        <v>1407600</v>
       </c>
       <c r="J43" s="3">
+        <v>1494500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1316900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1271600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1190600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1485400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1493200</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2624400</v>
+        <v>2433200</v>
       </c>
       <c r="E44" s="3">
-        <v>2602700</v>
+        <v>2630200</v>
       </c>
       <c r="F44" s="3">
-        <v>2516500</v>
+        <v>2608400</v>
       </c>
       <c r="G44" s="3">
-        <v>2535200</v>
+        <v>2522000</v>
       </c>
       <c r="H44" s="3">
-        <v>2301300</v>
+        <v>2540700</v>
       </c>
       <c r="I44" s="3">
-        <v>2215500</v>
+        <v>2306300</v>
       </c>
       <c r="J44" s="3">
+        <v>2220300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1915600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1855600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1814400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1488500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1436800</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>336800</v>
+        <v>316200</v>
       </c>
       <c r="E45" s="3">
-        <v>263900</v>
+        <v>337500</v>
       </c>
       <c r="F45" s="3">
-        <v>384200</v>
+        <v>264400</v>
       </c>
       <c r="G45" s="3">
-        <v>398800</v>
+        <v>385000</v>
       </c>
       <c r="H45" s="3">
-        <v>371800</v>
+        <v>399700</v>
       </c>
       <c r="I45" s="3">
-        <v>338400</v>
+        <v>372600</v>
       </c>
       <c r="J45" s="3">
+        <v>339100</v>
+      </c>
+      <c r="K45" s="3">
         <v>432300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>395000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>311000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>265400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7125300</v>
+        <v>6928000</v>
       </c>
       <c r="E46" s="3">
-        <v>7616300</v>
+        <v>7140800</v>
       </c>
       <c r="F46" s="3">
-        <v>8369600</v>
+        <v>7632900</v>
       </c>
       <c r="G46" s="3">
-        <v>7701200</v>
+        <v>8387900</v>
       </c>
       <c r="H46" s="3">
-        <v>6944200</v>
+        <v>7718100</v>
       </c>
       <c r="I46" s="3">
-        <v>7779500</v>
+        <v>6959400</v>
       </c>
       <c r="J46" s="3">
+        <v>7796500</v>
+      </c>
+      <c r="K46" s="3">
         <v>7692900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6332800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6933500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6916500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7651600</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2464600</v>
+        <v>2410000</v>
       </c>
       <c r="E47" s="3">
-        <v>2501400</v>
+        <v>2469900</v>
       </c>
       <c r="F47" s="3">
-        <v>2192700</v>
+        <v>2506900</v>
       </c>
       <c r="G47" s="3">
-        <v>2284300</v>
+        <v>2197500</v>
       </c>
       <c r="H47" s="3">
-        <v>2595100</v>
+        <v>2289300</v>
       </c>
       <c r="I47" s="3">
-        <v>2701700</v>
+        <v>2600700</v>
       </c>
       <c r="J47" s="3">
+        <v>2707600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2498900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2414200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2094900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2205400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1048400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5999800</v>
+        <v>5910800</v>
       </c>
       <c r="E48" s="3">
-        <v>6053200</v>
+        <v>6012900</v>
       </c>
       <c r="F48" s="3">
-        <v>6027300</v>
+        <v>6066400</v>
       </c>
       <c r="G48" s="3">
-        <v>5918500</v>
+        <v>6040400</v>
       </c>
       <c r="H48" s="3">
-        <v>5537400</v>
+        <v>5931500</v>
       </c>
       <c r="I48" s="3">
-        <v>5885800</v>
+        <v>5549500</v>
       </c>
       <c r="J48" s="3">
+        <v>5898600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5484500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4976700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4991000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4847200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4977800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9956200</v>
+        <v>9781400</v>
       </c>
       <c r="E49" s="3">
-        <v>10033000</v>
+        <v>9977900</v>
       </c>
       <c r="F49" s="3">
-        <v>10232800</v>
+        <v>10054900</v>
       </c>
       <c r="G49" s="3">
-        <v>10046000</v>
+        <v>10255100</v>
       </c>
       <c r="H49" s="3">
-        <v>9450800</v>
+        <v>10068000</v>
       </c>
       <c r="I49" s="3">
-        <v>10291600</v>
+        <v>9471400</v>
       </c>
       <c r="J49" s="3">
+        <v>10314100</v>
+      </c>
+      <c r="K49" s="3">
         <v>10046900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9194900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9536000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9316100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9662700</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,46 +2328,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1737200</v>
+        <v>1873900</v>
       </c>
       <c r="E52" s="3">
-        <v>1580800</v>
+        <v>1741000</v>
       </c>
       <c r="F52" s="3">
-        <v>1789300</v>
+        <v>1584300</v>
       </c>
       <c r="G52" s="3">
-        <v>1567800</v>
+        <v>1793200</v>
       </c>
       <c r="H52" s="3">
-        <v>1130900</v>
+        <v>1571200</v>
       </c>
       <c r="I52" s="3">
-        <v>1255900</v>
+        <v>1133300</v>
       </c>
       <c r="J52" s="3">
+        <v>1258700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1492600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1176800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1405800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1215800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1524500</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,46 +2410,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27283000</v>
+        <v>26904100</v>
       </c>
       <c r="E54" s="3">
-        <v>27784800</v>
+        <v>27342600</v>
       </c>
       <c r="F54" s="3">
-        <v>28611700</v>
+        <v>27845500</v>
       </c>
       <c r="G54" s="3">
-        <v>27518000</v>
+        <v>28674200</v>
       </c>
       <c r="H54" s="3">
-        <v>25658300</v>
+        <v>27578100</v>
       </c>
       <c r="I54" s="3">
-        <v>27914500</v>
+        <v>25714400</v>
       </c>
       <c r="J54" s="3">
+        <v>27975500</v>
+      </c>
+      <c r="K54" s="3">
         <v>27215800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24095300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24961100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24501000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24865000</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,236 +2487,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4152400</v>
+        <v>3750200</v>
       </c>
       <c r="E57" s="3">
-        <v>4732500</v>
+        <v>4364400</v>
       </c>
       <c r="F57" s="3">
-        <v>4095600</v>
+        <v>4910500</v>
       </c>
       <c r="G57" s="3">
-        <v>4000900</v>
+        <v>4301900</v>
       </c>
       <c r="H57" s="3">
-        <v>4198600</v>
+        <v>4275300</v>
       </c>
       <c r="I57" s="3">
-        <v>4807000</v>
+        <v>4431400</v>
       </c>
       <c r="J57" s="3">
+        <v>5061700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3701600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3460700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3636500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3558200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2940000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>229200</v>
+        <v>266500</v>
       </c>
       <c r="E58" s="3">
-        <v>197900</v>
+        <v>229700</v>
       </c>
       <c r="F58" s="3">
-        <v>153400</v>
+        <v>198300</v>
       </c>
       <c r="G58" s="3">
-        <v>180100</v>
+        <v>153700</v>
       </c>
       <c r="H58" s="3">
-        <v>164300</v>
+        <v>180500</v>
       </c>
       <c r="I58" s="3">
-        <v>170600</v>
+        <v>164700</v>
       </c>
       <c r="J58" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K58" s="3">
         <v>179100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>165500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>486200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>536000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>845100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2794700</v>
+        <v>2870400</v>
       </c>
       <c r="E59" s="3">
-        <v>3234500</v>
+        <v>2597900</v>
       </c>
       <c r="F59" s="3">
-        <v>2796000</v>
+        <v>3073900</v>
       </c>
       <c r="G59" s="3">
-        <v>2646000</v>
+        <v>2604800</v>
       </c>
       <c r="H59" s="3">
-        <v>2319300</v>
+        <v>2386100</v>
       </c>
       <c r="I59" s="3">
-        <v>2850100</v>
+        <v>2100800</v>
       </c>
       <c r="J59" s="3">
+        <v>2612100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2384400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1948700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1841800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2457400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2139800</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7176400</v>
+        <v>6887100</v>
       </c>
       <c r="E60" s="3">
-        <v>8164900</v>
+        <v>7192000</v>
       </c>
       <c r="F60" s="3">
-        <v>7044900</v>
+        <v>8182700</v>
       </c>
       <c r="G60" s="3">
-        <v>6827000</v>
+        <v>7060300</v>
       </c>
       <c r="H60" s="3">
-        <v>6682300</v>
+        <v>6841900</v>
       </c>
       <c r="I60" s="3">
-        <v>7827700</v>
+        <v>6696900</v>
       </c>
       <c r="J60" s="3">
+        <v>7844800</v>
+      </c>
+      <c r="K60" s="3">
         <v>6265000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5574900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5964600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6551600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5924900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>534000</v>
+        <v>539300</v>
       </c>
       <c r="E61" s="3">
-        <v>561500</v>
+        <v>535100</v>
       </c>
       <c r="F61" s="3">
-        <v>446900</v>
+        <v>562800</v>
       </c>
       <c r="G61" s="3">
-        <v>463600</v>
+        <v>447900</v>
       </c>
       <c r="H61" s="3">
-        <v>437100</v>
+        <v>464600</v>
       </c>
       <c r="I61" s="3">
-        <v>453800</v>
+        <v>438100</v>
       </c>
       <c r="J61" s="3">
+        <v>454800</v>
+      </c>
+      <c r="K61" s="3">
         <v>430700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>413600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>454300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>401900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>496500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2164300</v>
+        <v>2045600</v>
       </c>
       <c r="E62" s="3">
-        <v>2276100</v>
+        <v>2169000</v>
       </c>
       <c r="F62" s="3">
-        <v>2681400</v>
+        <v>2281100</v>
       </c>
       <c r="G62" s="3">
-        <v>2587400</v>
+        <v>2687300</v>
       </c>
       <c r="H62" s="3">
-        <v>2387400</v>
+        <v>2593000</v>
       </c>
       <c r="I62" s="3">
-        <v>2711900</v>
+        <v>2392600</v>
       </c>
       <c r="J62" s="3">
+        <v>2717800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2763700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2596800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2895900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2840400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2871000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,46 +2854,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10164100</v>
+        <v>9732700</v>
       </c>
       <c r="E66" s="3">
-        <v>11278900</v>
+        <v>10186300</v>
       </c>
       <c r="F66" s="3">
-        <v>10449800</v>
+        <v>11303500</v>
       </c>
       <c r="G66" s="3">
-        <v>10144600</v>
+        <v>10472700</v>
       </c>
       <c r="H66" s="3">
-        <v>9763200</v>
+        <v>10166700</v>
       </c>
       <c r="I66" s="3">
-        <v>11270200</v>
+        <v>9784600</v>
       </c>
       <c r="J66" s="3">
+        <v>11294900</v>
+      </c>
+      <c r="K66" s="3">
         <v>9740100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8819900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9611500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10055300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9599200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,46 +3076,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8857000</v>
+        <v>9648800</v>
       </c>
       <c r="E72" s="3">
-        <v>7844500</v>
+        <v>8876300</v>
       </c>
       <c r="F72" s="3">
-        <v>9153100</v>
+        <v>7861600</v>
       </c>
       <c r="G72" s="3">
-        <v>8296100</v>
+        <v>9173100</v>
       </c>
       <c r="H72" s="3">
-        <v>7480700</v>
+        <v>8314200</v>
       </c>
       <c r="I72" s="3">
-        <v>6655500</v>
+        <v>7497000</v>
       </c>
       <c r="J72" s="3">
+        <v>6670000</v>
+      </c>
+      <c r="K72" s="3">
         <v>7711900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6612500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5748100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5377600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5479700</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,46 +3240,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17118900</v>
+        <v>17171500</v>
       </c>
       <c r="E76" s="3">
-        <v>16505900</v>
+        <v>17156300</v>
       </c>
       <c r="F76" s="3">
-        <v>18161900</v>
+        <v>16541900</v>
       </c>
       <c r="G76" s="3">
-        <v>17373400</v>
+        <v>18201500</v>
       </c>
       <c r="H76" s="3">
-        <v>15895100</v>
+        <v>17411300</v>
       </c>
       <c r="I76" s="3">
-        <v>16644300</v>
+        <v>15929800</v>
       </c>
       <c r="J76" s="3">
+        <v>16680700</v>
+      </c>
+      <c r="K76" s="3">
         <v>17475700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15275400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15349600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14445700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15265800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3322,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>745100</v>
+        <v>505200</v>
       </c>
       <c r="E81" s="3">
-        <v>1000300</v>
+        <v>746700</v>
       </c>
       <c r="F81" s="3">
-        <v>626100</v>
+        <v>1002500</v>
       </c>
       <c r="G81" s="3">
-        <v>598100</v>
+        <v>627400</v>
       </c>
       <c r="H81" s="3">
-        <v>687300</v>
+        <v>599400</v>
       </c>
       <c r="I81" s="3">
-        <v>726500</v>
+        <v>688800</v>
       </c>
       <c r="J81" s="3">
+        <v>728100</v>
+      </c>
+      <c r="K81" s="3">
         <v>715500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>558800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>491200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1328000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,46 +3428,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>343900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>308200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>329500</v>
+      </c>
+      <c r="G83" s="3">
         <v>307500</v>
       </c>
-      <c r="E83" s="3">
-        <v>328700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>306800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>296000</v>
-      </c>
       <c r="H83" s="3">
-        <v>268100</v>
+        <v>296600</v>
       </c>
       <c r="I83" s="3">
-        <v>294500</v>
+        <v>268600</v>
       </c>
       <c r="J83" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K83" s="3">
         <v>276000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>251700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>236400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>267000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3672,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-116100</v>
+        <v>689400</v>
       </c>
       <c r="E89" s="3">
-        <v>2378700</v>
+        <v>-116300</v>
       </c>
       <c r="F89" s="3">
-        <v>1230400</v>
+        <v>2383900</v>
       </c>
       <c r="G89" s="3">
-        <v>443500</v>
+        <v>1233100</v>
       </c>
       <c r="H89" s="3">
-        <v>104700</v>
+        <v>444500</v>
       </c>
       <c r="I89" s="3">
-        <v>2381700</v>
+        <v>104900</v>
       </c>
       <c r="J89" s="3">
+        <v>2386900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1288600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>356400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>530700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1642600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1385400</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,46 +3732,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1295700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1153000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2035500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1855900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1753100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-888500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3010300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1699700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-317500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-248300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-272900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-224000</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3853,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-217700</v>
+        <v>-245900</v>
       </c>
       <c r="E94" s="3">
-        <v>-220700</v>
+        <v>-218100</v>
       </c>
       <c r="F94" s="3">
-        <v>-332100</v>
+        <v>-221100</v>
       </c>
       <c r="G94" s="3">
-        <v>-393200</v>
+        <v>-332800</v>
       </c>
       <c r="H94" s="3">
-        <v>-61900</v>
+        <v>-394100</v>
       </c>
       <c r="I94" s="3">
-        <v>-539800</v>
+        <v>-62000</v>
       </c>
       <c r="J94" s="3">
+        <v>-541000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-498800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-165600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-322300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-322900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-521300</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,46 +3913,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-7700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-2408700</v>
-      </c>
       <c r="F96" s="3">
+        <v>-2414000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-23700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-28800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-1937000</v>
-      </c>
       <c r="J96" s="3">
+        <v>-1941200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-44900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-232200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1305100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,118 +4075,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-204700</v>
+        <v>-344500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2553800</v>
+        <v>-205100</v>
       </c>
       <c r="F100" s="3">
-        <v>-186600</v>
+        <v>-2559400</v>
       </c>
       <c r="G100" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="H100" s="3">
         <v>-2300</v>
       </c>
-      <c r="H100" s="3">
-        <v>-547700</v>
-      </c>
       <c r="I100" s="3">
-        <v>-2119600</v>
+        <v>-548900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2124200</v>
+      </c>
+      <c r="K100" s="3">
         <v>31200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-754200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-332600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1874600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-168600</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-24500</v>
+        <v>-107900</v>
       </c>
       <c r="E101" s="3">
-        <v>-92000</v>
+        <v>-24600</v>
       </c>
       <c r="F101" s="3">
-        <v>26000</v>
+        <v>-92200</v>
       </c>
       <c r="G101" s="3">
-        <v>116000</v>
+        <v>26100</v>
       </c>
       <c r="H101" s="3">
-        <v>-260500</v>
+        <v>116200</v>
       </c>
       <c r="I101" s="3">
-        <v>46600</v>
+        <v>-261100</v>
       </c>
       <c r="J101" s="3">
+        <v>46700</v>
+      </c>
+      <c r="K101" s="3">
         <v>99200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-232600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>160800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-206600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-562900</v>
+        <v>-8900</v>
       </c>
       <c r="E102" s="3">
-        <v>-487700</v>
+        <v>-564200</v>
       </c>
       <c r="F102" s="3">
-        <v>737800</v>
+        <v>-488800</v>
       </c>
       <c r="G102" s="3">
-        <v>164000</v>
+        <v>739400</v>
       </c>
       <c r="H102" s="3">
-        <v>-765500</v>
+        <v>164300</v>
       </c>
       <c r="I102" s="3">
-        <v>-231100</v>
+        <v>-767100</v>
       </c>
       <c r="J102" s="3">
+        <v>-231600</v>
+      </c>
+      <c r="K102" s="3">
         <v>920300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-796000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>36600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-761500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>828500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ABEV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>ABEV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,206 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3814400</v>
+        <v>4177900</v>
       </c>
       <c r="E8" s="3">
-        <v>4144100</v>
+        <v>3886000</v>
       </c>
       <c r="F8" s="3">
-        <v>4580400</v>
+        <v>4221900</v>
       </c>
       <c r="G8" s="3">
-        <v>4155400</v>
+        <v>4666400</v>
       </c>
       <c r="H8" s="3">
-        <v>3630900</v>
+        <v>4233400</v>
       </c>
       <c r="I8" s="3">
-        <v>3721800</v>
+        <v>3699100</v>
       </c>
       <c r="J8" s="3">
+        <v>3791700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4442700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3724400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3042100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3113100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3631500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3053800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1944900</v>
+        <v>2102200</v>
       </c>
       <c r="E9" s="3">
-        <v>2045000</v>
+        <v>1981400</v>
       </c>
       <c r="F9" s="3">
-        <v>2217300</v>
+        <v>2083400</v>
       </c>
       <c r="G9" s="3">
-        <v>2149200</v>
+        <v>2258900</v>
       </c>
       <c r="H9" s="3">
-        <v>1892100</v>
+        <v>2189600</v>
       </c>
       <c r="I9" s="3">
-        <v>1900200</v>
+        <v>1927600</v>
       </c>
       <c r="J9" s="3">
+        <v>1935900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2118500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1863600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1542300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1486500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1604300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1452700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1869500</v>
+        <v>2075800</v>
       </c>
       <c r="E10" s="3">
-        <v>2099100</v>
+        <v>1904600</v>
       </c>
       <c r="F10" s="3">
-        <v>2363100</v>
+        <v>2138600</v>
       </c>
       <c r="G10" s="3">
-        <v>2006200</v>
+        <v>2407500</v>
       </c>
       <c r="H10" s="3">
-        <v>1738800</v>
+        <v>2043900</v>
       </c>
       <c r="I10" s="3">
-        <v>1821500</v>
+        <v>1771500</v>
       </c>
       <c r="J10" s="3">
+        <v>1855800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2324100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1860800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1499800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1626600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2027200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1601100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3">
-        <v>-52900</v>
-      </c>
       <c r="F14" s="3">
-        <v>-39800</v>
+        <v>-53900</v>
       </c>
       <c r="G14" s="3">
-        <v>-108800</v>
+        <v>-40600</v>
       </c>
       <c r="H14" s="3">
-        <v>-84800</v>
+        <v>-110800</v>
       </c>
       <c r="I14" s="3">
-        <v>-61300</v>
+        <v>-86400</v>
       </c>
       <c r="J14" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-21000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-34300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-12800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-33700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-9500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12900</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3098200</v>
+        <v>3140900</v>
       </c>
       <c r="E17" s="3">
-        <v>3101500</v>
+        <v>3156400</v>
       </c>
       <c r="F17" s="3">
-        <v>3436000</v>
+        <v>3159800</v>
       </c>
       <c r="G17" s="3">
-        <v>3224200</v>
+        <v>3500500</v>
       </c>
       <c r="H17" s="3">
-        <v>2725600</v>
+        <v>3284700</v>
       </c>
       <c r="I17" s="3">
-        <v>2814800</v>
+        <v>2776800</v>
       </c>
       <c r="J17" s="3">
+        <v>2867700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3362600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2868600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2258700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2321500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2141800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2335700</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>716200</v>
+        <v>1037100</v>
       </c>
       <c r="E18" s="3">
-        <v>1042600</v>
+        <v>729600</v>
       </c>
       <c r="F18" s="3">
-        <v>1144400</v>
+        <v>1062200</v>
       </c>
       <c r="G18" s="3">
-        <v>931200</v>
+        <v>1165900</v>
       </c>
       <c r="H18" s="3">
-        <v>905300</v>
+        <v>948700</v>
       </c>
       <c r="I18" s="3">
-        <v>907000</v>
+        <v>922300</v>
       </c>
       <c r="J18" s="3">
+        <v>924000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1080000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>855800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>783500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>791700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1489700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>718100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-104300</v>
+        <v>-72500</v>
       </c>
       <c r="E20" s="3">
-        <v>-135400</v>
+        <v>-106200</v>
       </c>
       <c r="F20" s="3">
-        <v>-133800</v>
+        <v>-138000</v>
       </c>
       <c r="G20" s="3">
-        <v>-225700</v>
+        <v>-136300</v>
       </c>
       <c r="H20" s="3">
-        <v>-78100</v>
+        <v>-229900</v>
       </c>
       <c r="I20" s="3">
-        <v>-107000</v>
+        <v>-79600</v>
       </c>
       <c r="J20" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-162300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-156200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-183600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>242800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-136800</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>955800</v>
+        <v>1308300</v>
       </c>
       <c r="E21" s="3">
-        <v>1215300</v>
+        <v>973800</v>
       </c>
       <c r="F21" s="3">
-        <v>1340000</v>
+        <v>1238200</v>
       </c>
       <c r="G21" s="3">
-        <v>1013000</v>
+        <v>1365200</v>
       </c>
       <c r="H21" s="3">
-        <v>1123800</v>
+        <v>1032000</v>
       </c>
       <c r="I21" s="3">
-        <v>1068600</v>
+        <v>1144900</v>
       </c>
       <c r="J21" s="3">
+        <v>1088700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1212900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>975600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1010900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>844400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1999500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>841000</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>133100</v>
+        <v>129800</v>
       </c>
       <c r="E22" s="3">
-        <v>124500</v>
+        <v>135600</v>
       </c>
       <c r="F22" s="3">
-        <v>137100</v>
+        <v>126800</v>
       </c>
       <c r="G22" s="3">
-        <v>139600</v>
+        <v>139700</v>
       </c>
       <c r="H22" s="3">
-        <v>113000</v>
+        <v>142200</v>
       </c>
       <c r="I22" s="3">
-        <v>80300</v>
+        <v>115100</v>
       </c>
       <c r="J22" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K22" s="3">
         <v>89300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>62600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>76100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>105500</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>478800</v>
+        <v>834800</v>
       </c>
       <c r="E23" s="3">
-        <v>782700</v>
+        <v>487700</v>
       </c>
       <c r="F23" s="3">
-        <v>873500</v>
+        <v>797400</v>
       </c>
       <c r="G23" s="3">
-        <v>565900</v>
+        <v>889900</v>
       </c>
       <c r="H23" s="3">
-        <v>714200</v>
+        <v>576600</v>
       </c>
       <c r="I23" s="3">
-        <v>719700</v>
+        <v>727600</v>
       </c>
       <c r="J23" s="3">
+        <v>733200</v>
+      </c>
+      <c r="K23" s="3">
         <v>828400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>628900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>700400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>545400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1656500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>475800</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-45600</v>
+        <v>9200</v>
       </c>
       <c r="E24" s="3">
-        <v>11800</v>
+        <v>-46400</v>
       </c>
       <c r="F24" s="3">
-        <v>-152600</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3">
-        <v>-83000</v>
+        <v>-155400</v>
       </c>
       <c r="H24" s="3">
-        <v>95800</v>
+        <v>-84500</v>
       </c>
       <c r="I24" s="3">
-        <v>7400</v>
+        <v>97600</v>
       </c>
       <c r="J24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K24" s="3">
         <v>72100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-118900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>133100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>308000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>524300</v>
+        <v>825600</v>
       </c>
       <c r="E26" s="3">
-        <v>770900</v>
+        <v>534200</v>
       </c>
       <c r="F26" s="3">
-        <v>1026000</v>
+        <v>785400</v>
       </c>
       <c r="G26" s="3">
-        <v>648900</v>
+        <v>1045300</v>
       </c>
       <c r="H26" s="3">
-        <v>618400</v>
+        <v>661100</v>
       </c>
       <c r="I26" s="3">
-        <v>712300</v>
+        <v>630100</v>
       </c>
       <c r="J26" s="3">
+        <v>725600</v>
+      </c>
+      <c r="K26" s="3">
         <v>756300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>747700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>567300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>511400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1348400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>461700</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>505200</v>
+        <v>804400</v>
       </c>
       <c r="E27" s="3">
-        <v>746700</v>
+        <v>514700</v>
       </c>
       <c r="F27" s="3">
-        <v>1002500</v>
+        <v>760700</v>
       </c>
       <c r="G27" s="3">
-        <v>627400</v>
+        <v>1021300</v>
       </c>
       <c r="H27" s="3">
-        <v>599400</v>
+        <v>639200</v>
       </c>
       <c r="I27" s="3">
-        <v>688800</v>
+        <v>610700</v>
       </c>
       <c r="J27" s="3">
+        <v>701800</v>
+      </c>
+      <c r="K27" s="3">
         <v>728100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>715500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>558800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>491200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1328000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>104300</v>
+        <v>72500</v>
       </c>
       <c r="E32" s="3">
-        <v>135400</v>
+        <v>106200</v>
       </c>
       <c r="F32" s="3">
-        <v>133800</v>
+        <v>138000</v>
       </c>
       <c r="G32" s="3">
-        <v>225700</v>
+        <v>136300</v>
       </c>
       <c r="H32" s="3">
-        <v>78100</v>
+        <v>229900</v>
       </c>
       <c r="I32" s="3">
-        <v>107000</v>
+        <v>79600</v>
       </c>
       <c r="J32" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K32" s="3">
         <v>162300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>156200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>183600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-242800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>505200</v>
+        <v>804400</v>
       </c>
       <c r="E33" s="3">
-        <v>746700</v>
+        <v>514700</v>
       </c>
       <c r="F33" s="3">
-        <v>1002500</v>
+        <v>760700</v>
       </c>
       <c r="G33" s="3">
-        <v>627400</v>
+        <v>1021300</v>
       </c>
       <c r="H33" s="3">
-        <v>599400</v>
+        <v>639200</v>
       </c>
       <c r="I33" s="3">
-        <v>688800</v>
+        <v>610700</v>
       </c>
       <c r="J33" s="3">
+        <v>701800</v>
+      </c>
+      <c r="K33" s="3">
         <v>728100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>715500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>558800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>491200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1328000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>505200</v>
+        <v>804400</v>
       </c>
       <c r="E35" s="3">
-        <v>746700</v>
+        <v>514700</v>
       </c>
       <c r="F35" s="3">
-        <v>1002500</v>
+        <v>760700</v>
       </c>
       <c r="G35" s="3">
-        <v>627400</v>
+        <v>1021300</v>
       </c>
       <c r="H35" s="3">
-        <v>599400</v>
+        <v>639200</v>
       </c>
       <c r="I35" s="3">
-        <v>688800</v>
+        <v>610700</v>
       </c>
       <c r="J35" s="3">
+        <v>701800</v>
+      </c>
+      <c r="K35" s="3">
         <v>728100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>715500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>558800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>491200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1328000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2445700</v>
+        <v>3580800</v>
       </c>
       <c r="E41" s="3">
-        <v>2465300</v>
+        <v>2491600</v>
       </c>
       <c r="F41" s="3">
-        <v>3012800</v>
+        <v>2511600</v>
       </c>
       <c r="G41" s="3">
-        <v>3575100</v>
+        <v>3069300</v>
       </c>
       <c r="H41" s="3">
-        <v>2851800</v>
+        <v>3642300</v>
       </c>
       <c r="I41" s="3">
-        <v>2601300</v>
+        <v>2905400</v>
       </c>
       <c r="J41" s="3">
+        <v>2650100</v>
+      </c>
+      <c r="K41" s="3">
         <v>3356100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3616400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2569300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3234100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3344600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4239000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63300</v>
+        <v>46700</v>
       </c>
       <c r="E42" s="3">
-        <v>73700</v>
+        <v>64500</v>
       </c>
       <c r="F42" s="3">
-        <v>91700</v>
+        <v>75100</v>
       </c>
       <c r="G42" s="3">
-        <v>271900</v>
+        <v>93500</v>
       </c>
       <c r="H42" s="3">
-        <v>310000</v>
+        <v>277000</v>
       </c>
       <c r="I42" s="3">
-        <v>271600</v>
+        <v>315800</v>
       </c>
       <c r="J42" s="3">
+        <v>276700</v>
+      </c>
+      <c r="K42" s="3">
         <v>386400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>411800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>241200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>383500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>332700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>282400</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1669600</v>
+        <v>1576100</v>
       </c>
       <c r="E43" s="3">
-        <v>1634200</v>
+        <v>1700900</v>
       </c>
       <c r="F43" s="3">
-        <v>1655600</v>
+        <v>1664800</v>
       </c>
       <c r="G43" s="3">
-        <v>1633800</v>
+        <v>1686700</v>
       </c>
       <c r="H43" s="3">
-        <v>1615900</v>
+        <v>1664500</v>
       </c>
       <c r="I43" s="3">
-        <v>1407600</v>
+        <v>1646200</v>
       </c>
       <c r="J43" s="3">
+        <v>1434000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1494500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1316900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1271600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1190600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1485400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1493200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2433200</v>
+        <v>2224700</v>
       </c>
       <c r="E44" s="3">
-        <v>2630200</v>
+        <v>2478900</v>
       </c>
       <c r="F44" s="3">
-        <v>2608400</v>
+        <v>2679500</v>
       </c>
       <c r="G44" s="3">
-        <v>2522000</v>
+        <v>2657400</v>
       </c>
       <c r="H44" s="3">
-        <v>2540700</v>
+        <v>2569400</v>
       </c>
       <c r="I44" s="3">
-        <v>2306300</v>
+        <v>2588400</v>
       </c>
       <c r="J44" s="3">
+        <v>2349600</v>
+      </c>
+      <c r="K44" s="3">
         <v>2220300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1915600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1855600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1814400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1488500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1436800</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>316200</v>
+        <v>293600</v>
       </c>
       <c r="E45" s="3">
-        <v>337500</v>
+        <v>322200</v>
       </c>
       <c r="F45" s="3">
-        <v>264400</v>
+        <v>343800</v>
       </c>
       <c r="G45" s="3">
-        <v>385000</v>
+        <v>269400</v>
       </c>
       <c r="H45" s="3">
-        <v>399700</v>
+        <v>392200</v>
       </c>
       <c r="I45" s="3">
-        <v>372600</v>
+        <v>407200</v>
       </c>
       <c r="J45" s="3">
+        <v>379600</v>
+      </c>
+      <c r="K45" s="3">
         <v>339100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>432300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>395000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>311000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>265400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6928000</v>
+        <v>7722000</v>
       </c>
       <c r="E46" s="3">
-        <v>7140800</v>
+        <v>7058100</v>
       </c>
       <c r="F46" s="3">
-        <v>7632900</v>
+        <v>7274900</v>
       </c>
       <c r="G46" s="3">
-        <v>8387900</v>
+        <v>7776300</v>
       </c>
       <c r="H46" s="3">
-        <v>7718100</v>
+        <v>8545400</v>
       </c>
       <c r="I46" s="3">
-        <v>6959400</v>
+        <v>7863000</v>
       </c>
       <c r="J46" s="3">
+        <v>7090100</v>
+      </c>
+      <c r="K46" s="3">
         <v>7796500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7692900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6332800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6933500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6916500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7651600</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2410000</v>
+        <v>2428300</v>
       </c>
       <c r="E47" s="3">
-        <v>2469900</v>
+        <v>2455200</v>
       </c>
       <c r="F47" s="3">
-        <v>2506900</v>
+        <v>2516300</v>
       </c>
       <c r="G47" s="3">
-        <v>2197500</v>
+        <v>2554000</v>
       </c>
       <c r="H47" s="3">
-        <v>2289300</v>
+        <v>2238800</v>
       </c>
       <c r="I47" s="3">
-        <v>2600700</v>
+        <v>2332300</v>
       </c>
       <c r="J47" s="3">
+        <v>2649600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2707600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2498900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2414200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2094900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2205400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1048400</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5910800</v>
+        <v>5947900</v>
       </c>
       <c r="E48" s="3">
-        <v>6012900</v>
+        <v>6021800</v>
       </c>
       <c r="F48" s="3">
-        <v>6066400</v>
+        <v>6125800</v>
       </c>
       <c r="G48" s="3">
-        <v>6040400</v>
+        <v>6180400</v>
       </c>
       <c r="H48" s="3">
-        <v>5931500</v>
+        <v>6153900</v>
       </c>
       <c r="I48" s="3">
-        <v>5549500</v>
+        <v>6042800</v>
       </c>
       <c r="J48" s="3">
+        <v>5653700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5898600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5484500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4976700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4991000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4847200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4977800</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9781400</v>
+        <v>10124000</v>
       </c>
       <c r="E49" s="3">
-        <v>9977900</v>
+        <v>9965100</v>
       </c>
       <c r="F49" s="3">
-        <v>10054900</v>
+        <v>10165300</v>
       </c>
       <c r="G49" s="3">
-        <v>10255100</v>
+        <v>10243700</v>
       </c>
       <c r="H49" s="3">
-        <v>10068000</v>
+        <v>10447700</v>
       </c>
       <c r="I49" s="3">
-        <v>9471400</v>
+        <v>10257000</v>
       </c>
       <c r="J49" s="3">
+        <v>9649300</v>
+      </c>
+      <c r="K49" s="3">
         <v>10314100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10046900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9194900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9536000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9316100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9662700</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1873900</v>
+        <v>2137100</v>
       </c>
       <c r="E52" s="3">
-        <v>1741000</v>
+        <v>1909100</v>
       </c>
       <c r="F52" s="3">
-        <v>1584300</v>
+        <v>1773700</v>
       </c>
       <c r="G52" s="3">
-        <v>1793200</v>
+        <v>1614000</v>
       </c>
       <c r="H52" s="3">
-        <v>1571200</v>
+        <v>1826900</v>
       </c>
       <c r="I52" s="3">
-        <v>1133300</v>
+        <v>1600700</v>
       </c>
       <c r="J52" s="3">
+        <v>1154600</v>
+      </c>
+      <c r="K52" s="3">
         <v>1258700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1492600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1176800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1405800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1215800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1524500</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26904100</v>
+        <v>28359300</v>
       </c>
       <c r="E54" s="3">
-        <v>27342600</v>
+        <v>27409300</v>
       </c>
       <c r="F54" s="3">
-        <v>27845500</v>
+        <v>27856000</v>
       </c>
       <c r="G54" s="3">
-        <v>28674200</v>
+        <v>28368300</v>
       </c>
       <c r="H54" s="3">
-        <v>27578100</v>
+        <v>29212600</v>
       </c>
       <c r="I54" s="3">
-        <v>25714400</v>
+        <v>28095900</v>
       </c>
       <c r="J54" s="3">
+        <v>26197200</v>
+      </c>
+      <c r="K54" s="3">
         <v>27975500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27215800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24095300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24961100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24501000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24865000</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3750200</v>
+        <v>3747100</v>
       </c>
       <c r="E57" s="3">
-        <v>4364400</v>
+        <v>3820600</v>
       </c>
       <c r="F57" s="3">
-        <v>4910500</v>
+        <v>4446400</v>
       </c>
       <c r="G57" s="3">
-        <v>4301900</v>
+        <v>5002700</v>
       </c>
       <c r="H57" s="3">
-        <v>4275300</v>
+        <v>4382600</v>
       </c>
       <c r="I57" s="3">
-        <v>4431400</v>
+        <v>4355600</v>
       </c>
       <c r="J57" s="3">
+        <v>4514600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5061700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3701600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3460700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3636500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3558200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2940000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>266500</v>
+        <v>254100</v>
       </c>
       <c r="E58" s="3">
-        <v>229700</v>
+        <v>271500</v>
       </c>
       <c r="F58" s="3">
-        <v>198300</v>
+        <v>234000</v>
       </c>
       <c r="G58" s="3">
-        <v>153700</v>
+        <v>202000</v>
       </c>
       <c r="H58" s="3">
-        <v>180500</v>
+        <v>156600</v>
       </c>
       <c r="I58" s="3">
-        <v>164700</v>
+        <v>183900</v>
       </c>
       <c r="J58" s="3">
+        <v>167800</v>
+      </c>
+      <c r="K58" s="3">
         <v>171000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>179100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>165500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>486200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>536000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>845100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2870400</v>
+        <v>2958500</v>
       </c>
       <c r="E59" s="3">
-        <v>2597900</v>
+        <v>2924300</v>
       </c>
       <c r="F59" s="3">
-        <v>3073900</v>
+        <v>2646700</v>
       </c>
       <c r="G59" s="3">
-        <v>2604800</v>
+        <v>3131600</v>
       </c>
       <c r="H59" s="3">
-        <v>2386100</v>
+        <v>2653700</v>
       </c>
       <c r="I59" s="3">
-        <v>2100800</v>
+        <v>2430900</v>
       </c>
       <c r="J59" s="3">
+        <v>2140300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2612100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2384400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1948700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1841800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2457400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2139800</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6887100</v>
+        <v>6959700</v>
       </c>
       <c r="E60" s="3">
-        <v>7192000</v>
+        <v>7016500</v>
       </c>
       <c r="F60" s="3">
-        <v>8182700</v>
+        <v>7327100</v>
       </c>
       <c r="G60" s="3">
-        <v>7060300</v>
+        <v>8336400</v>
       </c>
       <c r="H60" s="3">
-        <v>6841900</v>
+        <v>7192900</v>
       </c>
       <c r="I60" s="3">
-        <v>6696900</v>
+        <v>6970400</v>
       </c>
       <c r="J60" s="3">
+        <v>6822600</v>
+      </c>
+      <c r="K60" s="3">
         <v>7844800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6265000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5574900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5964600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6551600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5924900</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>539300</v>
+        <v>510400</v>
       </c>
       <c r="E61" s="3">
-        <v>535100</v>
+        <v>549400</v>
       </c>
       <c r="F61" s="3">
-        <v>562800</v>
+        <v>545200</v>
       </c>
       <c r="G61" s="3">
-        <v>447900</v>
+        <v>573300</v>
       </c>
       <c r="H61" s="3">
-        <v>464600</v>
+        <v>456300</v>
       </c>
       <c r="I61" s="3">
-        <v>438100</v>
+        <v>473300</v>
       </c>
       <c r="J61" s="3">
+        <v>446300</v>
+      </c>
+      <c r="K61" s="3">
         <v>454800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>430700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>413600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>454300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>401900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>496500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2045600</v>
+        <v>2061500</v>
       </c>
       <c r="E62" s="3">
-        <v>2169000</v>
+        <v>2084000</v>
       </c>
       <c r="F62" s="3">
-        <v>2281100</v>
+        <v>2209700</v>
       </c>
       <c r="G62" s="3">
-        <v>2687300</v>
+        <v>2323900</v>
       </c>
       <c r="H62" s="3">
-        <v>2593000</v>
+        <v>2737700</v>
       </c>
       <c r="I62" s="3">
-        <v>2392600</v>
+        <v>2641700</v>
       </c>
       <c r="J62" s="3">
+        <v>2437500</v>
+      </c>
+      <c r="K62" s="3">
         <v>2717800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2763700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2596800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2895900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2840400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2871000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9732700</v>
+        <v>9800200</v>
       </c>
       <c r="E66" s="3">
-        <v>10186300</v>
+        <v>9915400</v>
       </c>
       <c r="F66" s="3">
-        <v>11303500</v>
+        <v>10377600</v>
       </c>
       <c r="G66" s="3">
-        <v>10472700</v>
+        <v>11515800</v>
       </c>
       <c r="H66" s="3">
-        <v>10166700</v>
+        <v>10669300</v>
       </c>
       <c r="I66" s="3">
-        <v>9784600</v>
+        <v>10357600</v>
       </c>
       <c r="J66" s="3">
+        <v>9968300</v>
+      </c>
+      <c r="K66" s="3">
         <v>11294900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9740100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8819900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9611500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10055300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9599200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9648800</v>
+        <v>11027200</v>
       </c>
       <c r="E72" s="3">
-        <v>8876300</v>
+        <v>9974100</v>
       </c>
       <c r="F72" s="3">
-        <v>7861600</v>
+        <v>9187100</v>
       </c>
       <c r="G72" s="3">
-        <v>9173100</v>
+        <v>8153400</v>
       </c>
       <c r="H72" s="3">
-        <v>8314200</v>
+        <v>9489500</v>
       </c>
       <c r="I72" s="3">
-        <v>7497000</v>
+        <v>8614500</v>
       </c>
       <c r="J72" s="3">
+        <v>7781900</v>
+      </c>
+      <c r="K72" s="3">
         <v>6670000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7711900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6612500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5748100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5377600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5479700</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17171500</v>
+        <v>18559100</v>
       </c>
       <c r="E76" s="3">
-        <v>17156300</v>
+        <v>17493900</v>
       </c>
       <c r="F76" s="3">
-        <v>16541900</v>
+        <v>17478500</v>
       </c>
       <c r="G76" s="3">
-        <v>18201500</v>
+        <v>16852500</v>
       </c>
       <c r="H76" s="3">
-        <v>17411300</v>
+        <v>18543300</v>
       </c>
       <c r="I76" s="3">
-        <v>15929800</v>
+        <v>17738300</v>
       </c>
       <c r="J76" s="3">
+        <v>16229000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16680700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17475700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15275400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15349600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14445700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15265800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>505200</v>
+        <v>804400</v>
       </c>
       <c r="E81" s="3">
-        <v>746700</v>
+        <v>514700</v>
       </c>
       <c r="F81" s="3">
-        <v>1002500</v>
+        <v>760700</v>
       </c>
       <c r="G81" s="3">
-        <v>627400</v>
+        <v>1021300</v>
       </c>
       <c r="H81" s="3">
-        <v>599400</v>
+        <v>639200</v>
       </c>
       <c r="I81" s="3">
-        <v>688800</v>
+        <v>610700</v>
       </c>
       <c r="J81" s="3">
+        <v>701800</v>
+      </c>
+      <c r="K81" s="3">
         <v>728100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>715500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>558800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>491200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1328000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>445200</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>343900</v>
+        <v>343700</v>
       </c>
       <c r="E83" s="3">
-        <v>308200</v>
+        <v>350400</v>
       </c>
       <c r="F83" s="3">
-        <v>329500</v>
+        <v>314000</v>
       </c>
       <c r="G83" s="3">
-        <v>307500</v>
+        <v>335600</v>
       </c>
       <c r="H83" s="3">
-        <v>296600</v>
+        <v>313300</v>
       </c>
       <c r="I83" s="3">
-        <v>268600</v>
+        <v>302200</v>
       </c>
       <c r="J83" s="3">
+        <v>273700</v>
+      </c>
+      <c r="K83" s="3">
         <v>295200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>276000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>251700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>236400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>267000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>259700</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>689400</v>
+        <v>1629200</v>
       </c>
       <c r="E89" s="3">
-        <v>-116300</v>
+        <v>702400</v>
       </c>
       <c r="F89" s="3">
-        <v>2383900</v>
+        <v>-118500</v>
       </c>
       <c r="G89" s="3">
-        <v>1233100</v>
+        <v>2428700</v>
       </c>
       <c r="H89" s="3">
-        <v>444500</v>
+        <v>1256300</v>
       </c>
       <c r="I89" s="3">
-        <v>104900</v>
+        <v>452800</v>
       </c>
       <c r="J89" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2386900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1288600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>356400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>530700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1642600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1385400</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1282700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1295700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1153000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2035500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1855900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1753100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-888500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3010300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1699700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-317500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-248300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-272900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-224000</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-245900</v>
+        <v>-248800</v>
       </c>
       <c r="E94" s="3">
-        <v>-218100</v>
+        <v>-250500</v>
       </c>
       <c r="F94" s="3">
-        <v>-221100</v>
+        <v>-222200</v>
       </c>
       <c r="G94" s="3">
-        <v>-332800</v>
+        <v>-225300</v>
       </c>
       <c r="H94" s="3">
-        <v>-394100</v>
+        <v>-339100</v>
       </c>
       <c r="I94" s="3">
-        <v>-62000</v>
+        <v>-401500</v>
       </c>
       <c r="J94" s="3">
+        <v>-63200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-541000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-498800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-165600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-322300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-322900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-521300</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26000</v>
+        <v>-25800</v>
       </c>
       <c r="E96" s="3">
-        <v>-7700</v>
+        <v>-26400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2414000</v>
+        <v>-7800</v>
       </c>
       <c r="G96" s="3">
-        <v>-23700</v>
+        <v>-2459300</v>
       </c>
       <c r="H96" s="3">
-        <v>-28800</v>
+        <v>-24200</v>
       </c>
       <c r="I96" s="3">
-        <v>-4400</v>
+        <v>-29400</v>
       </c>
       <c r="J96" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1941200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-44900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-232200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1305100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25400</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-344500</v>
+        <v>-288300</v>
       </c>
       <c r="E100" s="3">
-        <v>-205100</v>
+        <v>-350900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2559400</v>
+        <v>-209000</v>
       </c>
       <c r="G100" s="3">
-        <v>-187000</v>
+        <v>-2607500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2300</v>
+        <v>-190500</v>
       </c>
       <c r="I100" s="3">
-        <v>-548900</v>
+        <v>-2400</v>
       </c>
       <c r="J100" s="3">
+        <v>-559200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2124200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>31200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-754200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-332600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1874600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-168600</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-107900</v>
+        <v>18200</v>
       </c>
       <c r="E101" s="3">
-        <v>-24600</v>
+        <v>-109900</v>
       </c>
       <c r="F101" s="3">
-        <v>-92200</v>
+        <v>-25000</v>
       </c>
       <c r="G101" s="3">
-        <v>26100</v>
+        <v>-93900</v>
       </c>
       <c r="H101" s="3">
-        <v>116200</v>
+        <v>26600</v>
       </c>
       <c r="I101" s="3">
-        <v>-261100</v>
+        <v>118400</v>
       </c>
       <c r="J101" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="K101" s="3">
         <v>46700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>99200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-232600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>160800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-206600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>133000</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-8900</v>
+        <v>1110300</v>
       </c>
       <c r="E102" s="3">
-        <v>-564200</v>
+        <v>-9000</v>
       </c>
       <c r="F102" s="3">
-        <v>-488800</v>
+        <v>-574800</v>
       </c>
       <c r="G102" s="3">
-        <v>739400</v>
+        <v>-498000</v>
       </c>
       <c r="H102" s="3">
-        <v>164300</v>
+        <v>753300</v>
       </c>
       <c r="I102" s="3">
-        <v>-767100</v>
+        <v>167400</v>
       </c>
       <c r="J102" s="3">
+        <v>-781500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-231600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>920300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-796000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>36600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-761500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>828500</v>
       </c>
     </row>
